--- a/EconomicProject/Examples/Report_E5.xlsx
+++ b/EconomicProject/Examples/Report_E5.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>182:209</t>
+    <t>176:201</t>
   </si>
   <si>
-    <t>209:236</t>
+    <t>201:227</t>
   </si>
   <si>
-    <t>236:262</t>
+    <t>227:252</t>
   </si>
   <si>
-    <t>262:289</t>
+    <t>252:277</t>
   </si>
   <si>
-    <t>289:316</t>
+    <t>277:302</t>
   </si>
   <si>
-    <t>316:343</t>
+    <t>302:327</t>
   </si>
   <si>
-    <t>343:370</t>
+    <t>327:352</t>
   </si>
   <si>
-    <t>370:397</t>
+    <t>352:377</t>
   </si>
   <si>
-    <t>397:424</t>
+    <t>377:402</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>182:209</c:v>
+                  <c:v>176:201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209:236</c:v>
+                  <c:v>201:227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>236:262</c:v>
+                  <c:v>227:252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262:289</c:v>
+                  <c:v>252:277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>289:316</c:v>
+                  <c:v>277:302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>316:343</c:v>
+                  <c:v>302:327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>343:370</c:v>
+                  <c:v>327:352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>370:397</c:v>
+                  <c:v>352:377</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>397:424</c:v>
+                  <c:v>377:402</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>163</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>165</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>154</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>325.1495810029466</v>
+        <v>264.3075923187029</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24152,13 +24152,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>379.2384554727663</v>
+        <v>332.9585756440358</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24166,13 +24166,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>218.4241336508463</v>
+        <v>239.0984576033059</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24180,13 +24180,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>304.8261134234396</v>
+        <v>221.8097094966432</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24194,13 +24194,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>286.5685656783568</v>
+        <v>247.0353881947368</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24208,13 +24208,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>247.4786610790219</v>
+        <v>338.963569519869</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24222,13 +24222,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>237.873584429878</v>
+        <v>361.5355267724949</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24236,13 +24236,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>252.1336009573886</v>
+        <v>329.0348185391761</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24250,13 +24250,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>317.2091646662604</v>
+        <v>301.1875059825693</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24264,7 +24264,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>360.2398555993621</v>
+        <v>309.6624703324748</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24272,7 +24272,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>212.7343596642719</v>
+        <v>294.7097518970877</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24280,7 +24280,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>289.4487255951008</v>
+        <v>235.5461608154879</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24288,7 +24288,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>317.2677891819725</v>
+        <v>319.8679449498392</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24296,7 +24296,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>321.812862814154</v>
+        <v>272.0215877895641</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24304,7 +24304,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>349.7439487412532</v>
+        <v>304.8310009472583</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24312,7 +24312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>310.8392332600763</v>
+        <v>303.1833613658717</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24320,7 +24320,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>337.1457816512585</v>
+        <v>383.7485724797623</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24328,7 +24328,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>291.7871610018431</v>
+        <v>268.2384970330093</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24336,7 +24336,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>372.029499539344</v>
+        <v>367.9591294441192</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24344,7 +24344,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>352.6896830037589</v>
+        <v>366.6581306707619</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24352,7 +24352,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>355.7949842193404</v>
+        <v>285.3110875959966</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24360,7 +24360,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>294.0279712768682</v>
+        <v>299.4803663361475</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24368,7 +24368,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>374.3939185639222</v>
+        <v>292.3054883144334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24376,7 +24376,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>256.9094706174221</v>
+        <v>240.1166010949889</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24384,7 +24384,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>219.4008843099656</v>
+        <v>362.6715880340015</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24392,7 +24392,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>347.7777768704926</v>
+        <v>292.7232805569162</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24400,7 +24400,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>366.2449870272961</v>
+        <v>255.287484987846</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24408,7 +24408,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>294.6536482686782</v>
+        <v>361.5766928647861</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24416,7 +24416,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>282.6879679159875</v>
+        <v>393.8664606391923</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24424,7 +24424,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>218.7333941874437</v>
+        <v>228.921742320464</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24432,7 +24432,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>278.8234772780809</v>
+        <v>254.2755048127231</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24440,7 +24440,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>230.9341147818071</v>
+        <v>209.8528896649679</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24448,7 +24448,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>370.4039992226454</v>
+        <v>257.4543412788531</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24456,7 +24456,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>320.4394953311382</v>
+        <v>361.3382871126483</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24464,7 +24464,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>266.0428165572519</v>
+        <v>305.7380932799496</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24472,7 +24472,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>260.5341186742874</v>
+        <v>243.4302091643044</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24480,7 +24480,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>338.1837400464965</v>
+        <v>236.4024092923284</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24488,7 +24488,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>201.7402534357628</v>
+        <v>271.8686516738891</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24496,7 +24496,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>352.8156328652479</v>
+        <v>295.6888740469207</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24504,7 +24504,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>331.6258970585383</v>
+        <v>216.2748604733519</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24512,7 +24512,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>289.3100821321999</v>
+        <v>189.088615957843</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24520,7 +24520,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>264.5765905080314</v>
+        <v>378.9435578107368</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24528,7 +24528,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>282.3108368805512</v>
+        <v>270.6558261154389</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24536,7 +24536,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>291.7679365364143</v>
+        <v>371.1082869663189</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24544,7 +24544,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>306.7783116082465</v>
+        <v>238.4645461643607</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24552,7 +24552,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>287.2505624574454</v>
+        <v>292.4495164043749</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24560,7 +24560,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>266.1421877358005</v>
+        <v>292.6390869062109</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24568,7 +24568,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>213.5492742584883</v>
+        <v>288.9708747969017</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24576,7 +24576,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>256.8834445796658</v>
+        <v>321.4199697239575</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24584,7 +24584,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>335.3509946383608</v>
+        <v>341.9227343742724</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24592,7 +24592,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>221.9625551360474</v>
+        <v>270.8408455945331</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24600,7 +24600,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>298.3505681171875</v>
+        <v>302.9406802380472</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24608,7 +24608,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>266.1559274552379</v>
+        <v>240.8789437733543</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24616,7 +24616,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>344.0844200830343</v>
+        <v>216.0819474389251</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24624,7 +24624,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>283.385532743394</v>
+        <v>243.8031190461763</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24632,7 +24632,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>236.4781299944184</v>
+        <v>286.4933300584698</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24640,7 +24640,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>225.632732000961</v>
+        <v>247.6884486856398</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24648,7 +24648,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>267.9885966114466</v>
+        <v>371.1270065364296</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24656,7 +24656,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>333.7498894686021</v>
+        <v>241.7685509607471</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24664,7 +24664,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>249.5346191458332</v>
+        <v>336.5912723456854</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24672,7 +24672,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>297.7029279233909</v>
+        <v>256.2217501427027</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24680,7 +24680,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>325.6740124375956</v>
+        <v>284.082225204524</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24688,7 +24688,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>215.2822272221001</v>
+        <v>316.0608821432813</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24696,7 +24696,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>371.8001754321476</v>
+        <v>214.406394567787</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24704,7 +24704,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>339.5691676030886</v>
+        <v>342.1929342398179</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24712,7 +24712,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>345.6488357217351</v>
+        <v>304.0919078407034</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24720,7 +24720,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>340.2591984043863</v>
+        <v>377.233301690389</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24728,7 +24728,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>362.0988349841423</v>
+        <v>247.2502163539814</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24736,7 +24736,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>344.7921331898496</v>
+        <v>375.2416203730305</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24744,7 +24744,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>330.8839295557682</v>
+        <v>184.0291461858696</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24752,7 +24752,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>204.8633726573013</v>
+        <v>227.6308969798558</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24760,7 +24760,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>371.326841116394</v>
+        <v>336.2984138719507</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24768,7 +24768,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>288.0102724202507</v>
+        <v>370.6436129580109</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24776,7 +24776,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>344.2745756927824</v>
+        <v>263.0745076653961</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24784,7 +24784,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>297.8098586863258</v>
+        <v>310.9135962888422</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24792,7 +24792,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>304.7561443346516</v>
+        <v>240.8573457863002</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24800,7 +24800,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>242.9537034360357</v>
+        <v>270.9553245347325</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24808,7 +24808,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>342.3485639528674</v>
+        <v>352.3864528919566</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24816,7 +24816,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>255.4088743459318</v>
+        <v>374.4829552330868</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24824,7 +24824,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>282.5814887176918</v>
+        <v>250.732288267067</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24832,7 +24832,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>335.9604311128096</v>
+        <v>254.6404200940125</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24840,7 +24840,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>259.8502798444935</v>
+        <v>283.2234942779208</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24848,7 +24848,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>233.4649533796432</v>
+        <v>229.408635793291</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24856,7 +24856,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>219.9576166961567</v>
+        <v>250.9081902288115</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24864,7 +24864,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>358.1088492652126</v>
+        <v>286.3849977661561</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24872,7 +24872,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>229.0756306813588</v>
+        <v>358.473908847091</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24880,7 +24880,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>284.5832050272858</v>
+        <v>281.0296357585415</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24888,7 +24888,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>381.4577343514876</v>
+        <v>235.8409692791111</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24896,7 +24896,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>326.9646368644032</v>
+        <v>386.0306770632685</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24904,7 +24904,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>237.9800545879873</v>
+        <v>293.9316997998337</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24912,7 +24912,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>377.7022142095988</v>
+        <v>341.5890520789233</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24920,7 +24920,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>248.6201439271863</v>
+        <v>239.2999846330106</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24928,7 +24928,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>317.7378415251347</v>
+        <v>275.086160892465</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24936,7 +24936,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>363.1922375945834</v>
+        <v>222.8542895464418</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24944,7 +24944,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>329.3795389782585</v>
+        <v>333.9652059929268</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24952,7 +24952,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>317.4501523509931</v>
+        <v>382.6288518427725</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24960,7 +24960,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>246.8368292019446</v>
+        <v>221.6734139218801</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24968,7 +24968,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>195.2579318631644</v>
+        <v>392.8386773817617</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24976,7 +24976,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>234.0278807127516</v>
+        <v>233.5441831862884</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24984,7 +24984,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>249.659537031173</v>
+        <v>249.0925169121629</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24992,7 +24992,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>325.8072831667949</v>
+        <v>270.203751939022</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25000,7 +25000,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>272.7193397947341</v>
+        <v>363.8715049060375</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25008,7 +25008,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>292.2637448829939</v>
+        <v>319.6293742466844</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25016,7 +25016,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>211.9008026899086</v>
+        <v>316.8847679086387</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25024,7 +25024,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>228.8999297883662</v>
+        <v>352.9842404953688</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25032,7 +25032,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>288.8840441031725</v>
+        <v>359.9580814810754</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25040,7 +25040,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>380.1005374069042</v>
+        <v>293.3574739339585</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25048,7 +25048,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>294.6404368383623</v>
+        <v>356.8061618115165</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25056,7 +25056,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>220.708222547314</v>
+        <v>287.3175329631211</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25064,7 +25064,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>308.76577570776</v>
+        <v>329.9924679381194</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25072,7 +25072,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>385.6279272258565</v>
+        <v>341.6321591795195</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25080,7 +25080,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>212.9494661369631</v>
+        <v>355.1489652866567</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25088,7 +25088,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>222.7854924967642</v>
+        <v>308.3630107819207</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25096,7 +25096,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>353.3379519386525</v>
+        <v>325.8297193019563</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25104,7 +25104,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>274.6204099220388</v>
+        <v>215.8799895603849</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25112,7 +25112,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>332.6887587061394</v>
+        <v>285.0752067964935</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25120,7 +25120,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>275.4608435842069</v>
+        <v>267.4347053614255</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25128,7 +25128,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>355.8208208471095</v>
+        <v>402.4947140044256</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25136,7 +25136,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>240.5925797105539</v>
+        <v>298.3160896451495</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25144,7 +25144,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>241.9515357001582</v>
+        <v>354.9837235421351</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25152,7 +25152,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>364.2294627524648</v>
+        <v>336.5341223022833</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25160,7 +25160,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>320.6927513148023</v>
+        <v>318.9875136981487</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25168,7 +25168,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>307.9218452984307</v>
+        <v>247.7819641674187</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25176,7 +25176,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>261.0965364088685</v>
+        <v>329.8460998652191</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25184,7 +25184,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>363.3233725987337</v>
+        <v>307.7584627309542</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25192,7 +25192,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>298.8493122538043</v>
+        <v>198.394340933674</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25200,7 +25200,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>263.298037048745</v>
+        <v>238.0613152710135</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25208,7 +25208,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>282.3704328509326</v>
+        <v>214.0317410242427</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25216,7 +25216,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>291.7033158247461</v>
+        <v>254.9413800744937</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25224,7 +25224,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>266.237422429937</v>
+        <v>216.32546065266</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25232,7 +25232,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>318.2192993771679</v>
+        <v>365.8530489679076</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25240,7 +25240,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>229.0619553035336</v>
+        <v>247.8195834514624</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25248,7 +25248,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>351.2924921574549</v>
+        <v>352.9174625878592</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25256,7 +25256,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>197.797626623332</v>
+        <v>303.791005312825</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25264,7 +25264,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>230.1176326145348</v>
+        <v>375.1911660713536</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25272,7 +25272,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>308.0140657089431</v>
+        <v>337.0068159448763</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25280,7 +25280,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>199.4756005783069</v>
+        <v>366.7230238431949</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25288,7 +25288,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>355.1431351354552</v>
+        <v>309.1325612034989</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25296,7 +25296,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>399.4174021166859</v>
+        <v>350.845138581757</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25304,7 +25304,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>329.5646178844167</v>
+        <v>233.0464190774469</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25312,7 +25312,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>285.2537960678518</v>
+        <v>286.1009353223789</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25320,7 +25320,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>354.7886954103517</v>
+        <v>378.5150882542065</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25328,7 +25328,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>248.9998112991091</v>
+        <v>247.8284284935585</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25336,7 +25336,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>198.5015466762798</v>
+        <v>322.8907889780281</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25344,7 +25344,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>342.2709529345007</v>
+        <v>263.1001405818749</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25352,7 +25352,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>355.8732965377233</v>
+        <v>275.2570116081762</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25360,7 +25360,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>245.9275826191167</v>
+        <v>236.5806277356468</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25368,7 +25368,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>314.6362930746214</v>
+        <v>364.4381839905657</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25376,7 +25376,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>248.8375420585346</v>
+        <v>213.1576050547889</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25384,7 +25384,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>359.9541340137524</v>
+        <v>324.7783631915113</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25392,7 +25392,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>278.5462334266105</v>
+        <v>260.3876385739682</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25400,7 +25400,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>286.7397936642626</v>
+        <v>346.1922655740083</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25408,7 +25408,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>297.868604157274</v>
+        <v>360.3165610162988</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25416,7 +25416,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>318.8482211682439</v>
+        <v>292.1292995870152</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25424,7 +25424,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>254.3318782579337</v>
+        <v>247.5517139825362</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25432,7 +25432,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>307.3747511752803</v>
+        <v>309.8077935606535</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25440,7 +25440,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>263.7389431492847</v>
+        <v>264.8971454573559</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25448,7 +25448,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>256.3527371939298</v>
+        <v>273.2823973992847</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25456,7 +25456,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>252.8548826440422</v>
+        <v>363.5941405469105</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25464,7 +25464,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>252.9559087594658</v>
+        <v>282.4181453126836</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25472,7 +25472,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>366.9367086701559</v>
+        <v>289.3218836718765</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25480,7 +25480,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>300.5547631060581</v>
+        <v>319.6219287847294</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25488,7 +25488,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>272.5070635755327</v>
+        <v>277.9271450097939</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25496,7 +25496,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>318.7536775810401</v>
+        <v>322.5977356481754</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25504,7 +25504,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>315.838025334173</v>
+        <v>325.6081920062554</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25512,7 +25512,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>297.5230296802178</v>
+        <v>265.1874012988</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25520,7 +25520,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>294.7268666477378</v>
+        <v>319.5026271813651</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25528,7 +25528,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>320.7919884368237</v>
+        <v>371.4938208956308</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25536,7 +25536,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>328.5565915600458</v>
+        <v>270.8507400497251</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25544,7 +25544,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>358.8533297946458</v>
+        <v>255.5622439634681</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25552,7 +25552,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>336.9388106420557</v>
+        <v>285.5221943555549</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25560,7 +25560,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>270.1731569507483</v>
+        <v>209.8764408662881</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25568,7 +25568,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>363.2293557957081</v>
+        <v>312.8341558791713</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25576,7 +25576,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>271.9512237744647</v>
+        <v>290.0680297267548</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25584,7 +25584,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>343.7076096478015</v>
+        <v>395.2107116329417</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25592,7 +25592,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>359.5196862316609</v>
+        <v>267.8568640260747</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25600,7 +25600,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>270.6541305421301</v>
+        <v>304.3406076746006</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25608,7 +25608,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>304.736692771933</v>
+        <v>312.8018366175921</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25616,7 +25616,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>238.0215640357349</v>
+        <v>331.9862305215461</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25624,7 +25624,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>305.9566377197712</v>
+        <v>263.83407791132</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25632,7 +25632,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>392.45854787604</v>
+        <v>278.0325551754616</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25640,7 +25640,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>283.3394701760798</v>
+        <v>228.3471093072221</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25648,7 +25648,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>365.9489680924409</v>
+        <v>338.25750865282</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25656,7 +25656,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>265.6404786751602</v>
+        <v>335.8431524703809</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25664,7 +25664,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>266.0298256198413</v>
+        <v>296.3465355942026</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25672,7 +25672,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>221.0610191079026</v>
+        <v>351.6782263600413</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25680,7 +25680,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>297.8401409258746</v>
+        <v>319.543092556607</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25688,7 +25688,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>236.8598869172202</v>
+        <v>205.0339840549327</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25696,7 +25696,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>304.3383806743166</v>
+        <v>309.8157431566196</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25704,7 +25704,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>297.1879398705322</v>
+        <v>331.3235504385035</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25712,7 +25712,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>282.1501347643055</v>
+        <v>264.9524833177605</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25720,7 +25720,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>381.8146828867086</v>
+        <v>271.4544296554298</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25728,7 +25728,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>233.6372831023517</v>
+        <v>320.8067702776113</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25736,7 +25736,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>273.4891121219659</v>
+        <v>395.0041361717955</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25744,7 +25744,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>365.6298380183158</v>
+        <v>356.8570929500403</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25752,7 +25752,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>294.6597373682272</v>
+        <v>327.9114848879978</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25760,7 +25760,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>217.5948160645724</v>
+        <v>312.1645461809455</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25768,7 +25768,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>331.0925056628394</v>
+        <v>247.161353140832</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25776,7 +25776,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>245.1044755974156</v>
+        <v>215.5455773921395</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25784,7 +25784,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>323.357754194251</v>
+        <v>333.2069573648903</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25792,7 +25792,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>222.4186534253649</v>
+        <v>338.8729739900367</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25800,7 +25800,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>339.7578443379902</v>
+        <v>215.9360652427629</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25808,7 +25808,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>271.5070217250341</v>
+        <v>289.4461423852317</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25816,7 +25816,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>283.1039114974928</v>
+        <v>269.5050795078438</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25824,7 +25824,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>300.0516444081602</v>
+        <v>280.2839479144466</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25832,7 +25832,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>304.0921591023202</v>
+        <v>246.5509337318528</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25840,7 +25840,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>320.6402254319775</v>
+        <v>268.6781170288751</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25848,7 +25848,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>304.4651576221194</v>
+        <v>250.8310247980599</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25856,7 +25856,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>286.2180359510785</v>
+        <v>342.9508137486909</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25864,7 +25864,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>218.5426535035882</v>
+        <v>255.0456552619321</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25872,7 +25872,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>300.3804123013037</v>
+        <v>331.9698457544869</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25880,7 +25880,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>371.155128085955</v>
+        <v>268.2665671335254</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25888,7 +25888,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>291.2627234636244</v>
+        <v>225.4597877106617</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25896,7 +25896,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>282.5350974065063</v>
+        <v>329.0592263582819</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25904,7 +25904,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>352.9905462252455</v>
+        <v>348.59781068424</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25912,7 +25912,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>212.4939962992219</v>
+        <v>345.5494292098658</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25920,7 +25920,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>235.3235720036414</v>
+        <v>366.4556122481009</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25928,7 +25928,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>309.6218238684301</v>
+        <v>275.8461289239346</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25936,7 +25936,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>314.8375911337035</v>
+        <v>245.0690310760861</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25944,7 +25944,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>344.7728707262541</v>
+        <v>307.9581047049978</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25952,7 +25952,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>303.3752816888262</v>
+        <v>231.1850692512045</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25960,7 +25960,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>371.4831856988275</v>
+        <v>363.5642816664637</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25968,7 +25968,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>346.2777649863323</v>
+        <v>333.8229280948441</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25976,7 +25976,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>234.9274578070272</v>
+        <v>331.6788550280768</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25984,7 +25984,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>239.527732851785</v>
+        <v>278.2710859678035</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25992,7 +25992,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>362.1947273274968</v>
+        <v>284.4481232341827</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -26000,7 +26000,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>315.5041984243944</v>
+        <v>354.2993608645751</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26008,7 +26008,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>320.009265322058</v>
+        <v>308.1541741430936</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26016,7 +26016,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>271.2566392870962</v>
+        <v>350.9911146313545</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26024,7 +26024,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>233.4045078037103</v>
+        <v>304.699975999054</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26032,7 +26032,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>300.8894914896705</v>
+        <v>367.5124291565202</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26040,7 +26040,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>337.2553287369299</v>
+        <v>343.5838555928412</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26048,7 +26048,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>294.1767976344063</v>
+        <v>387.0334265873738</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26056,7 +26056,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>327.5985383497027</v>
+        <v>302.2093850612198</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26064,7 +26064,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>282.5014795427163</v>
+        <v>349.7060607141256</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26072,7 +26072,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>274.5486437715354</v>
+        <v>289.3286404969276</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26080,7 +26080,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>240.0005581571311</v>
+        <v>263.6497198069827</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26088,7 +26088,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>368.6444823508894</v>
+        <v>378.4475805646152</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26096,7 +26096,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>307.4598579047267</v>
+        <v>303.5874545692666</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26104,7 +26104,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>243.5547660696433</v>
+        <v>258.7094200948725</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26112,7 +26112,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>352.7606691383667</v>
+        <v>298.6687996785659</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26120,7 +26120,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>225.9558297014605</v>
+        <v>268.6363568587124</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26128,7 +26128,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>269.3797909760522</v>
+        <v>378.1963911215995</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26136,7 +26136,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>282.3252683377821</v>
+        <v>305.9886463901946</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26144,7 +26144,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>330.4384717922282</v>
+        <v>302.0954864610246</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26152,7 +26152,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>293.2350631602754</v>
+        <v>317.4148802379891</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26160,7 +26160,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>261.2222912060369</v>
+        <v>270.1252387331297</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26168,7 +26168,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>327.4844507848078</v>
+        <v>374.2201498436123</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26176,7 +26176,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>284.3055731961664</v>
+        <v>340.554938654158</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26184,7 +26184,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>209.9143027798636</v>
+        <v>260.7571857376856</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26192,7 +26192,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>324.8239121294971</v>
+        <v>266.6062443498095</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26200,7 +26200,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>224.9402479262806</v>
+        <v>267.0380996283458</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26208,7 +26208,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>320.7662655180096</v>
+        <v>374.203416312776</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26216,7 +26216,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>270.5123773723451</v>
+        <v>258.1231613157592</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26224,7 +26224,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>226.5297616997103</v>
+        <v>352.3383772063592</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26232,7 +26232,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>219.0979904317641</v>
+        <v>209.4494216868435</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26240,7 +26240,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>377.4507526045113</v>
+        <v>342.7551854396374</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26248,7 +26248,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>236.3786847678993</v>
+        <v>304.3767817144966</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26256,7 +26256,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>287.9000149327786</v>
+        <v>224.8860050009847</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26264,7 +26264,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>314.3982177991136</v>
+        <v>379.3370036454917</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26272,7 +26272,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>375.2083480524452</v>
+        <v>274.6678504967689</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26280,7 +26280,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>385.5555706476887</v>
+        <v>264.3326871275414</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26288,7 +26288,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>285.4308755286067</v>
+        <v>287.5052322437361</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26296,7 +26296,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>250.2675963329671</v>
+        <v>251.1577191689899</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26304,7 +26304,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>268.4878397660567</v>
+        <v>326.6636790131848</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26312,7 +26312,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>291.5424650894977</v>
+        <v>231.2511809926744</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26320,7 +26320,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>227.7986793498986</v>
+        <v>333.9598881411114</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26328,7 +26328,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>282.8844440052009</v>
+        <v>249.5453922484703</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26336,7 +26336,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>231.4626446142043</v>
+        <v>366.5087015026859</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26344,7 +26344,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>250.5989319862227</v>
+        <v>332.4770539776445</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26352,7 +26352,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>391.1310317354456</v>
+        <v>308.842779386306</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26360,7 +26360,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>304.8301105455899</v>
+        <v>393.2016865730636</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26368,7 +26368,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>293.9972390682341</v>
+        <v>258.3404750117614</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26376,7 +26376,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>210.3044090466511</v>
+        <v>279.1603065363987</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26384,7 +26384,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>279.2042021865158</v>
+        <v>273.9120139624328</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26392,7 +26392,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>233.9431515051756</v>
+        <v>374.2218334434758</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26400,7 +26400,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>218.1009943588495</v>
+        <v>311.1928390475908</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26408,7 +26408,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>239.4766728527194</v>
+        <v>376.3248004354854</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26416,7 +26416,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>368.7778874108565</v>
+        <v>327.9425843324156</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26424,7 +26424,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>332.6241167893377</v>
+        <v>360.1483182414774</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26432,7 +26432,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>279.7940007726706</v>
+        <v>351.4424876731105</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26440,7 +26440,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>333.3587965199904</v>
+        <v>285.6918305534566</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26448,7 +26448,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>306.1689573717888</v>
+        <v>368.6262482596937</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26456,7 +26456,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>321.8327677737833</v>
+        <v>283.1419657201006</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26464,7 +26464,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>322.6935801300319</v>
+        <v>272.0502627928749</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26472,7 +26472,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>324.5713015692697</v>
+        <v>390.2596100861047</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26480,7 +26480,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>263.999773443387</v>
+        <v>308.6901175062708</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26488,7 +26488,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>321.6931288632726</v>
+        <v>355.9005405527387</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26496,7 +26496,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>316.5868794734704</v>
+        <v>228.0564046141502</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26504,7 +26504,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>314.8761402030082</v>
+        <v>202.6473784265988</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26512,7 +26512,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>296.8217064941046</v>
+        <v>252.9141987402778</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26520,7 +26520,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>395.6536343966171</v>
+        <v>329.5654799970112</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26528,7 +26528,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>383.7623355230914</v>
+        <v>242.7412565948054</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26536,7 +26536,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>390.0794931132709</v>
+        <v>256.7257910666702</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26544,7 +26544,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>241.357958659472</v>
+        <v>278.9554042372393</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26552,7 +26552,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>248.5721200945407</v>
+        <v>336.959912255153</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26560,7 +26560,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>339.6164893110875</v>
+        <v>310.0859304760424</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26568,7 +26568,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>231.712496964245</v>
+        <v>249.9812630475999</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26576,7 +26576,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>234.4772791869948</v>
+        <v>296.3389203263168</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26584,7 +26584,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>311.8943304012581</v>
+        <v>277.160306662424</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26592,7 +26592,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>302.326777270357</v>
+        <v>232.4335999732964</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26600,7 +26600,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>300.577260548206</v>
+        <v>273.8184477101136</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26608,7 +26608,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>345.9416524321495</v>
+        <v>364.9747553338223</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26616,7 +26616,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>331.8112597039319</v>
+        <v>316.0293260821999</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26624,7 +26624,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>323.7058499465865</v>
+        <v>273.2927791564973</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26632,7 +26632,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>326.4180465707992</v>
+        <v>258.0171758987196</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26640,7 +26640,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>312.7767206591818</v>
+        <v>303.6000890375227</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26648,7 +26648,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>286.3854709378175</v>
+        <v>294.7017084062881</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26656,7 +26656,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>261.3756490890154</v>
+        <v>328.3814994696985</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26664,7 +26664,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>251.2059277142662</v>
+        <v>329.9078138235562</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26672,7 +26672,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>369.9343264712357</v>
+        <v>364.9697323761058</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26680,7 +26680,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>204.2749658858939</v>
+        <v>380.6182312196103</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26688,7 +26688,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>275.9515307928248</v>
+        <v>237.833769453471</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26696,7 +26696,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>274.0202683019576</v>
+        <v>370.5703888433401</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26704,7 +26704,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>356.9797956223007</v>
+        <v>347.8787003225587</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26712,7 +26712,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>261.4657616010848</v>
+        <v>338.707198884862</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26720,7 +26720,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>339.3813298248016</v>
+        <v>362.2698692210492</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26728,7 +26728,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>375.4249920847996</v>
+        <v>295.8210768876925</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26736,7 +26736,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>232.1434382819515</v>
+        <v>183.8313837799689</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26744,7 +26744,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>374.4207308905947</v>
+        <v>227.8713243867152</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26752,7 +26752,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>387.4237592579705</v>
+        <v>266.3526984585146</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26760,7 +26760,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>328.1531492692646</v>
+        <v>316.0900716913514</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26768,7 +26768,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>368.3750801437727</v>
+        <v>277.5570313885715</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26776,7 +26776,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>312.1912884252959</v>
+        <v>217.1813956236604</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26784,7 +26784,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>238.6252492451606</v>
+        <v>369.3356026639492</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26792,7 +26792,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>249.2177070861849</v>
+        <v>254.472325374321</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26800,7 +26800,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>302.4034227960298</v>
+        <v>205.2545899625569</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26808,7 +26808,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>362.1042503067098</v>
+        <v>365.6427047693892</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26816,7 +26816,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>193.087930040178</v>
+        <v>292.3722978793077</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26824,7 +26824,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>337.0226941760221</v>
+        <v>319.6173922080536</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26832,7 +26832,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>187.4744752279527</v>
+        <v>321.4941870014717</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26840,7 +26840,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>383.3229070060906</v>
+        <v>360.5911351076065</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26848,7 +26848,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>334.5526651510477</v>
+        <v>221.4751555202054</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26856,7 +26856,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>235.6061854804328</v>
+        <v>325.8133885566297</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26864,7 +26864,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>241.6763676863434</v>
+        <v>348.3800541005833</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26872,7 +26872,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>267.6275655110807</v>
+        <v>213.9185154914436</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26880,7 +26880,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>196.7664727212957</v>
+        <v>288.2880478333586</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26888,7 +26888,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>336.4970687026822</v>
+        <v>291.3590232306675</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26896,7 +26896,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>277.8229289920347</v>
+        <v>325.3030204722062</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26904,7 +26904,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>250.6985351034207</v>
+        <v>215.7026422952901</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26912,7 +26912,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>372.7342971728972</v>
+        <v>262.9123967434649</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26920,7 +26920,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>262.372685662786</v>
+        <v>366.2005194750034</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26928,7 +26928,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>266.4644345068225</v>
+        <v>371.9844355713781</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26936,7 +26936,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>328.8213328285822</v>
+        <v>318.6576607944052</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26944,7 +26944,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>288.0656918431924</v>
+        <v>342.7678271474373</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26952,7 +26952,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>348.0155861496407</v>
+        <v>274.5028609706434</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26960,7 +26960,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>357.6087808937547</v>
+        <v>284.6508996396451</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26968,7 +26968,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>232.4456058301327</v>
+        <v>248.3995765069042</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26976,7 +26976,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>338.0765740588946</v>
+        <v>264.3533700576763</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26984,7 +26984,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>265.1775412432365</v>
+        <v>209.2822891692069</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26992,7 +26992,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>203.8453677393285</v>
+        <v>316.5394145910075</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -27000,7 +27000,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>323.3687081866169</v>
+        <v>377.5499872680619</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27008,7 +27008,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>316.7208445468302</v>
+        <v>206.8449287205948</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27016,7 +27016,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>219.6333911202396</v>
+        <v>243.626187764778</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27024,7 +27024,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>303.2309061039539</v>
+        <v>346.698962603364</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27032,7 +27032,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>275.5407922510342</v>
+        <v>240.7780261113545</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27040,7 +27040,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>232.9962165777739</v>
+        <v>329.497108084577</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27048,7 +27048,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>317.9527574506349</v>
+        <v>330.5229135319275</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27056,7 +27056,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>360.6246252156821</v>
+        <v>270.2095958437568</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27064,7 +27064,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>287.2212346342927</v>
+        <v>227.2721806015491</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27072,7 +27072,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>302.0852089017225</v>
+        <v>241.7841185820501</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27080,7 +27080,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>358.7888750182866</v>
+        <v>241.0049968052684</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27088,7 +27088,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>304.6352729101978</v>
+        <v>235.9972773537573</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27096,7 +27096,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>332.8939188814464</v>
+        <v>279.4804814145384</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27104,7 +27104,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>285.1033511535618</v>
+        <v>233.1101106467031</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27112,7 +27112,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>228.2706618256419</v>
+        <v>376.0741967865422</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27120,7 +27120,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>270.991558461553</v>
+        <v>226.9400915516227</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27128,7 +27128,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>380.9423990429092</v>
+        <v>265.3911457352808</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27136,7 +27136,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>301.1744063413825</v>
+        <v>392.9057673363998</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27144,7 +27144,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>298.1187568968779</v>
+        <v>249.8038256167992</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27152,7 +27152,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>271.2211906207276</v>
+        <v>342.0558954721843</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27160,7 +27160,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>214.8815527823643</v>
+        <v>357.3369000162674</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27168,7 +27168,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>354.2260358282241</v>
+        <v>302.8345320064553</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27176,7 +27176,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>292.3521523346453</v>
+        <v>324.4951748995645</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27184,7 +27184,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>371.0705905042696</v>
+        <v>218.6159294557648</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27192,7 +27192,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>300.6522435171531</v>
+        <v>294.2077878279441</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27200,7 +27200,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>348.865067142719</v>
+        <v>344.9753245204615</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27208,7 +27208,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>401.1301725929081</v>
+        <v>328.8307032795781</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27216,7 +27216,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>192.7988167373773</v>
+        <v>330.9022423961223</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27224,7 +27224,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>244.3656275396114</v>
+        <v>242.405527626244</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27232,7 +27232,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>310.1832276949162</v>
+        <v>211.244395582373</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27240,7 +27240,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>299.4201278217118</v>
+        <v>267.0421187712566</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27248,7 +27248,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>282.8139399175095</v>
+        <v>278.9550439315304</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27256,7 +27256,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>317.1353764658919</v>
+        <v>319.0827941160114</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27264,7 +27264,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>347.988950713141</v>
+        <v>317.1828728169808</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27272,7 +27272,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>314.0557546935033</v>
+        <v>362.9250056634332</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27280,7 +27280,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>230.2630944212208</v>
+        <v>397.4927394049424</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27288,7 +27288,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>301.3257835879336</v>
+        <v>241.3751190037939</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27296,7 +27296,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>347.5365688084319</v>
+        <v>373.4872695368093</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27304,7 +27304,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>252.8227059112173</v>
+        <v>287.9264205392778</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27312,7 +27312,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>345.7617594051947</v>
+        <v>262.4130610928052</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27320,7 +27320,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>308.6275414833024</v>
+        <v>335.8636999929716</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27328,7 +27328,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>264.3322596874526</v>
+        <v>393.9329523525647</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27336,7 +27336,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>196.6581435910965</v>
+        <v>377.5706859436672</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27344,7 +27344,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>273.3219721847088</v>
+        <v>301.3350785483913</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27352,7 +27352,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>279.0959347429577</v>
+        <v>286.791807231829</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27360,7 +27360,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>336.1140663743132</v>
+        <v>253.6822280771392</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27368,7 +27368,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>253.2725328400898</v>
+        <v>219.7183534194832</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27376,7 +27376,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>242.0077866322345</v>
+        <v>389.7825667763704</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27384,7 +27384,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>354.3710254853842</v>
+        <v>238.0891182070977</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27392,7 +27392,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>319.2767062833555</v>
+        <v>221.7071824899676</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27400,7 +27400,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>275.7445908076992</v>
+        <v>247.8873829379935</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27408,7 +27408,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>282.181188442171</v>
+        <v>328.8633071898099</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27416,7 +27416,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>358.6779784948849</v>
+        <v>336.4904377029321</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27424,7 +27424,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>344.1000979497337</v>
+        <v>250.6529161332151</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27432,7 +27432,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>204.9211343842981</v>
+        <v>234.0383874080212</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27440,7 +27440,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>191.4162244382537</v>
+        <v>296.8912498188166</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27448,7 +27448,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>357.1378503988117</v>
+        <v>371.2539765011008</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27456,7 +27456,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>354.8527265074986</v>
+        <v>370.4039014137177</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27464,7 +27464,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>391.0863000589708</v>
+        <v>271.7043996455088</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27472,7 +27472,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>304.6583258966832</v>
+        <v>237.2672650991376</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27480,7 +27480,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>311.2084578885456</v>
+        <v>370.7636425996227</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27488,7 +27488,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>252.4629852958121</v>
+        <v>249.2438042577533</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27496,7 +27496,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>392.7586361089259</v>
+        <v>381.497418087819</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27504,7 +27504,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>274.4020155488612</v>
+        <v>363.1104045813413</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27512,7 +27512,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>375.6456042248016</v>
+        <v>256.7254347499882</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27520,7 +27520,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>293.8306458209494</v>
+        <v>240.9111555769706</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27528,7 +27528,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>227.7296850145478</v>
+        <v>337.7700508683881</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27536,7 +27536,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>257.0606499339335</v>
+        <v>281.7859413422138</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27544,7 +27544,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>275.5269533246566</v>
+        <v>303.8831669603904</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27552,7 +27552,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>245.475742186874</v>
+        <v>341.0043304434505</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27560,7 +27560,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>254.6866726034457</v>
+        <v>330.330341083267</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27568,7 +27568,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>299.4842298740381</v>
+        <v>249.4321901869615</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27576,7 +27576,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>340.1536155805474</v>
+        <v>259.7047536664233</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27584,7 +27584,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>317.761675015177</v>
+        <v>271.2932831712228</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27592,7 +27592,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>332.2887398134193</v>
+        <v>318.5045629817358</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27600,7 +27600,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>316.5062130452941</v>
+        <v>353.6568406441104</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27608,7 +27608,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>402.8296965337758</v>
+        <v>230.6339057910677</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27616,7 +27616,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>259.5657671767166</v>
+        <v>339.5805406136133</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27624,7 +27624,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>290.3415113738533</v>
+        <v>295.8863705705325</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27632,7 +27632,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>324.2335829017955</v>
+        <v>332.2609121307076</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27640,7 +27640,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>325.1361679622496</v>
+        <v>275.2939491947205</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27648,7 +27648,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>283.1671020108761</v>
+        <v>338.8809997838989</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27656,7 +27656,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>423.5891729687003</v>
+        <v>233.2580447950321</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27664,7 +27664,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>245.3801911611974</v>
+        <v>313.1610730845323</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27672,7 +27672,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>249.3124508798944</v>
+        <v>360.7667023541832</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27680,7 +27680,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>350.5998148942029</v>
+        <v>252.5456514047975</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27688,7 +27688,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>335.065885525021</v>
+        <v>380.1845691466303</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27696,7 +27696,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>266.2280683959831</v>
+        <v>253.1235982768174</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27704,7 +27704,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>256.3514131323892</v>
+        <v>287.3372828056365</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27712,7 +27712,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>272.4149077141341</v>
+        <v>377.5712214398403</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27720,7 +27720,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>257.5971997572981</v>
+        <v>274.5197523894113</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27728,7 +27728,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>260.2081228900885</v>
+        <v>242.8749622535555</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27736,7 +27736,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>274.8932672065253</v>
+        <v>381.1614888564721</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27744,7 +27744,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>304.9565931930292</v>
+        <v>201.1215450858188</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27752,7 +27752,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>351.7049586124075</v>
+        <v>295.4951413485919</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27760,7 +27760,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>378.4228154962203</v>
+        <v>388.5814420190452</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27768,7 +27768,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>333.2696621397758</v>
+        <v>314.931340046631</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27776,7 +27776,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>229.2200459095059</v>
+        <v>284.4772487809777</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27784,7 +27784,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>223.0612196318673</v>
+        <v>304.5895021989172</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27792,7 +27792,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>341.3358056645421</v>
+        <v>318.6074976941113</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27800,7 +27800,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>318.2104986614051</v>
+        <v>216.1807279395748</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27808,7 +27808,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>366.7056920735237</v>
+        <v>243.844512798077</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27816,7 +27816,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>327.1383874297564</v>
+        <v>215.4466460822212</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27824,7 +27824,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>219.5787787317986</v>
+        <v>242.4081948757569</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27832,7 +27832,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>309.4548898679768</v>
+        <v>254.9055003787868</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27840,7 +27840,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>360.9247919534361</v>
+        <v>238.2007300333913</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27848,7 +27848,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>396.5896902866039</v>
+        <v>233.5956519562511</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27856,7 +27856,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>286.4868243581615</v>
+        <v>357.3184257757687</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27864,7 +27864,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>372.0701045924789</v>
+        <v>369.7688430440247</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27872,7 +27872,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>345.0675039712992</v>
+        <v>272.7395097805424</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27880,7 +27880,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>329.0116217597109</v>
+        <v>176.2646649680256</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27888,7 +27888,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>342.8093081104655</v>
+        <v>300.2877195535574</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27896,7 +27896,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>275.1184926027541</v>
+        <v>250.4402009853634</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27904,7 +27904,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>337.5207111693989</v>
+        <v>316.0208844163841</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27912,7 +27912,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>212.1588687037781</v>
+        <v>231.2940966316069</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27920,7 +27920,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>233.0184498279332</v>
+        <v>358.6107572084291</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27928,7 +27928,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>358.6021722334121</v>
+        <v>337.2272109680156</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27936,7 +27936,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>323.8463760066864</v>
+        <v>217.2965398735168</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27944,7 +27944,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>386.1370547471872</v>
+        <v>372.4409916082133</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27952,7 +27952,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>315.5975669545414</v>
+        <v>245.8608501504544</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27960,7 +27960,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>244.1047057430943</v>
+        <v>344.724075121199</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27968,7 +27968,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>333.6715436536742</v>
+        <v>275.8695855465404</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27976,7 +27976,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>283.4875305633179</v>
+        <v>272.6480206959014</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27984,7 +27984,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>238.5177710633122</v>
+        <v>333.2253739196215</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27992,7 +27992,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>358.5136870819665</v>
+        <v>345.4319701810383</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -28000,7 +28000,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>296.5313376668956</v>
+        <v>260.0613886344353</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28008,7 +28008,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>341.7725721601504</v>
+        <v>317.1115136963369</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28016,7 +28016,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>284.573658850403</v>
+        <v>374.378323249322</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28024,7 +28024,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>278.0696868003566</v>
+        <v>362.2100947665102</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28032,7 +28032,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>282.8416309401442</v>
+        <v>300.1385693866915</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28040,7 +28040,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>326.259072361186</v>
+        <v>262.4052552730205</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28048,7 +28048,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>334.593698893417</v>
+        <v>383.9968395342701</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28056,7 +28056,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>382.2426110785868</v>
+        <v>237.625280737848</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28064,7 +28064,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>217.0236643486822</v>
+        <v>218.9450863795132</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28072,7 +28072,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>374.8557089076833</v>
+        <v>251.27321078138</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28080,7 +28080,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>309.681298912727</v>
+        <v>359.0966513861838</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28088,7 +28088,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>281.323594356844</v>
+        <v>321.1026123775885</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28096,7 +28096,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>357.8957547743494</v>
+        <v>355.9995739267622</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28104,7 +28104,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>276.3075409299148</v>
+        <v>318.0443832957205</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28112,7 +28112,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>322.4599584655969</v>
+        <v>203.0979353664946</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28120,7 +28120,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>375.8505121571782</v>
+        <v>303.787067238843</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28128,7 +28128,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>283.014639240296</v>
+        <v>240.8931916211573</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28136,7 +28136,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>381.6938839835281</v>
+        <v>299.5354553776925</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28144,7 +28144,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>338.22289037006</v>
+        <v>326.3101155438491</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28152,7 +28152,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>252.2516746061672</v>
+        <v>230.0905028796433</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28160,7 +28160,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>336.2464180371329</v>
+        <v>274.19341171047</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28168,7 +28168,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>299.1193356779672</v>
+        <v>283.9192484913505</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28176,7 +28176,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>361.5542623422681</v>
+        <v>326.436286970007</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28184,7 +28184,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>319.4371984338736</v>
+        <v>257.2040330362499</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28192,7 +28192,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>390.0201741882219</v>
+        <v>257.8185643847567</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28200,7 +28200,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>361.713760360913</v>
+        <v>303.6507389301058</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28208,7 +28208,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>248.0771250724125</v>
+        <v>278.0619066735539</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28216,7 +28216,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>331.1731977254933</v>
+        <v>277.2031398388161</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28224,7 +28224,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>303.5704499704608</v>
+        <v>251.8096818119884</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28232,7 +28232,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>369.4213800914931</v>
+        <v>298.5829567708304</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28240,7 +28240,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>360.891893365624</v>
+        <v>284.4758064065947</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28248,7 +28248,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>261.2228858667148</v>
+        <v>303.404414077381</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28256,7 +28256,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>361.3998763980836</v>
+        <v>359.397074769318</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28264,7 +28264,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>249.7746865893767</v>
+        <v>232.2198109810081</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28272,7 +28272,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>390.9335748929964</v>
+        <v>252.2046642283767</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28280,7 +28280,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>386.1958772093129</v>
+        <v>356.6862441389499</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28288,7 +28288,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>254.641085019679</v>
+        <v>349.5936966531711</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28296,7 +28296,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>324.5977071660339</v>
+        <v>299.3263751088929</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28304,7 +28304,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>262.5675475833539</v>
+        <v>282.4811299857447</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28312,7 +28312,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>230.3003576007271</v>
+        <v>261.5060206057006</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28320,7 +28320,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>234.4188803623103</v>
+        <v>322.9317073479095</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28328,7 +28328,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>213.3716627817915</v>
+        <v>349.7605935279632</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28336,7 +28336,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>281.3432198611981</v>
+        <v>275.3592226622472</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28344,7 +28344,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>341.2125800659314</v>
+        <v>371.8867236001901</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28352,7 +28352,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>345.3177697837257</v>
+        <v>241.8972778787058</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28360,7 +28360,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>399.6182233033364</v>
+        <v>305.8482319009972</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28368,7 +28368,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>368.1874861927547</v>
+        <v>264.5927117684619</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28376,7 +28376,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>290.2471108764835</v>
+        <v>272.7779105385901</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28384,7 +28384,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>375.7124722750013</v>
+        <v>236.9122840394506</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28392,7 +28392,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>358.8510953630237</v>
+        <v>286.6126895086864</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28400,7 +28400,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>241.969989616828</v>
+        <v>331.6897920254192</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28408,7 +28408,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>310.9272763690183</v>
+        <v>255.0567681799991</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28416,7 +28416,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>219.6115753963978</v>
+        <v>301.6394034112947</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28424,7 +28424,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>292.7332392952582</v>
+        <v>295.7651166084203</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28432,7 +28432,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>294.0186232249573</v>
+        <v>274.0967096063191</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28440,7 +28440,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>279.9289541500758</v>
+        <v>312.7792567590419</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28448,7 +28448,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>340.119420107693</v>
+        <v>206.8763999898128</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28456,7 +28456,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>223.8422320894726</v>
+        <v>295.3009215501941</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28464,7 +28464,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>288.8524958022776</v>
+        <v>376.0847507277234</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28472,7 +28472,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>321.1585756344484</v>
+        <v>282.6287460546441</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28480,7 +28480,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>345.0645264144276</v>
+        <v>294.3495005885655</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28488,7 +28488,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>314.1518211031375</v>
+        <v>245.5798173787605</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28496,7 +28496,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>360.3324809861471</v>
+        <v>295.8331179677867</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28504,7 +28504,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>215.7426611178871</v>
+        <v>288.0622313758404</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28512,7 +28512,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>351.3926508786602</v>
+        <v>321.9931604249282</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28520,7 +28520,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>198.1269417450241</v>
+        <v>261.8012167989124</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28528,7 +28528,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>356.4182088611206</v>
+        <v>248.2859001430707</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28536,7 +28536,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>240.1761309160758</v>
+        <v>353.623878512226</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28544,7 +28544,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>217.9926871916487</v>
+        <v>254.0560646396266</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28552,7 +28552,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>347.582933960513</v>
+        <v>224.6208041090461</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28560,7 +28560,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>257.7205633427725</v>
+        <v>327.1277868086665</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28568,7 +28568,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>320.2855873835846</v>
+        <v>301.4826085730055</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28576,7 +28576,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>239.5450368109233</v>
+        <v>262.366968968947</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28584,7 +28584,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>285.4426148157415</v>
+        <v>312.9352507935315</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28592,7 +28592,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>336.4441542410119</v>
+        <v>244.1398050955021</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28600,7 +28600,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>307.4173653012271</v>
+        <v>241.69783399887</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28608,7 +28608,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>341.4513877059234</v>
+        <v>285.3438886299089</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28616,7 +28616,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>289.6857104271054</v>
+        <v>291.4648768904357</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28624,7 +28624,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>345.8089948272612</v>
+        <v>328.4287028807342</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28632,7 +28632,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>380.9420614662565</v>
+        <v>297.0594325841898</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28640,7 +28640,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>242.7146539888308</v>
+        <v>242.8766972407778</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28648,7 +28648,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>237.3364965145261</v>
+        <v>305.8978885373009</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28656,7 +28656,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>252.2608289429415</v>
+        <v>243.2212076830719</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28664,7 +28664,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>373.2035724702081</v>
+        <v>371.3987625119746</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28672,7 +28672,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>267.6695617520451</v>
+        <v>330.8842738881681</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28680,7 +28680,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>241.5543829050666</v>
+        <v>272.5815625294067</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28688,7 +28688,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>283.794331801321</v>
+        <v>233.7314526895462</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28696,7 +28696,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>281.6161581690627</v>
+        <v>243.7514853045148</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28704,7 +28704,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>349.7462701151862</v>
+        <v>361.8000585553361</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28712,7 +28712,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>335.357963651566</v>
+        <v>334.1254345531219</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28720,7 +28720,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>241.7443850427083</v>
+        <v>281.3636703573702</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28728,7 +28728,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>340.5753457254066</v>
+        <v>333.6054722558707</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28736,7 +28736,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>267.777044960312</v>
+        <v>240.6931138211274</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28744,7 +28744,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>220.4987606612372</v>
+        <v>324.8796015762049</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28752,7 +28752,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>366.8405026819318</v>
+        <v>260.9508352015407</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28760,7 +28760,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>348.0908800491319</v>
+        <v>218.4396601808151</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28768,7 +28768,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>224.6003741032516</v>
+        <v>363.2914730056452</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28776,7 +28776,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>379.1934607201744</v>
+        <v>270.8921832348345</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28784,7 +28784,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>258.2399649875301</v>
+        <v>200.907840435476</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28792,7 +28792,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>355.8180191324894</v>
+        <v>346.49882473681</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28800,7 +28800,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>238.9103520205353</v>
+        <v>303.4753139290896</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28808,7 +28808,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>325.4047088363513</v>
+        <v>225.5560932641633</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28816,7 +28816,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>309.7314007822803</v>
+        <v>321.190450352393</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28824,7 +28824,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>348.1929087079351</v>
+        <v>248.1310245502783</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28832,7 +28832,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>288.1264590759635</v>
+        <v>250.79946983206</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28840,7 +28840,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>301.1494720667502</v>
+        <v>322.4699493694043</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28848,7 +28848,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>272.8588340594853</v>
+        <v>390.8215047354009</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28856,7 +28856,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>279.8886744481114</v>
+        <v>296.8248983176943</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28864,7 +28864,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>286.6412675548441</v>
+        <v>327.2479867884147</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28872,7 +28872,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>351.7796938876184</v>
+        <v>360.1904184291441</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28880,7 +28880,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>305.3420024760749</v>
+        <v>353.9557697031615</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28888,7 +28888,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>331.4770588330937</v>
+        <v>293.3210291188215</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28896,7 +28896,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>366.7438680369778</v>
+        <v>242.3311288757113</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28904,7 +28904,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>297.1404204183753</v>
+        <v>374.030495431175</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28912,7 +28912,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>252.1399540626243</v>
+        <v>235.8914634488012</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28920,7 +28920,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>368.5686423854763</v>
+        <v>212.3681567211134</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28928,7 +28928,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>371.2528500560948</v>
+        <v>345.813938246313</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28936,7 +28936,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>307.2117977949615</v>
+        <v>315.8442983455435</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28944,7 +28944,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>375.2371173872235</v>
+        <v>306.6785259220318</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28952,7 +28952,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>213.9245627643385</v>
+        <v>351.8635639764587</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28960,7 +28960,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>264.7105474264004</v>
+        <v>313.0506358251166</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28968,7 +28968,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>403.3922244070467</v>
+        <v>308.0838946066474</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28976,7 +28976,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>315.0202075828391</v>
+        <v>213.9555357381888</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28984,7 +28984,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>367.0928759297816</v>
+        <v>367.9177058834176</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28992,7 +28992,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>346.5577631313869</v>
+        <v>190.7499797959838</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -29000,7 +29000,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>286.6803423727101</v>
+        <v>309.013497344546</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29008,7 +29008,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>312.5610190258975</v>
+        <v>216.5425709911475</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29016,7 +29016,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>274.8658059177222</v>
+        <v>278.326610762457</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29024,7 +29024,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>379.5896552520069</v>
+        <v>320.8469361654663</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29032,7 +29032,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>378.180986918487</v>
+        <v>222.6245723030033</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29040,7 +29040,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>254.0591517926908</v>
+        <v>262.8764974038398</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29048,7 +29048,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>364.8130467865706</v>
+        <v>342.5594400860285</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29056,7 +29056,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>379.9750355947105</v>
+        <v>368.318637231886</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29064,7 +29064,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>280.7223374167597</v>
+        <v>366.5773764384776</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29072,7 +29072,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>303.5959037916715</v>
+        <v>371.597166038906</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29080,7 +29080,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>333.7507767459626</v>
+        <v>260.4214427751714</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29088,7 +29088,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>250.9601807485711</v>
+        <v>285.0141983615226</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29096,7 +29096,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>276.1305037044105</v>
+        <v>246.1288387420406</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29104,7 +29104,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>324.3793842989659</v>
+        <v>283.7878849166215</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29112,7 +29112,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>214.734891104659</v>
+        <v>375.6255255197792</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29120,7 +29120,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>244.4076591539895</v>
+        <v>276.1642437124013</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29128,7 +29128,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>349.2546854875642</v>
+        <v>282.8472977088392</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29136,7 +29136,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>250.1284109047714</v>
+        <v>243.0979701299677</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29144,7 +29144,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>368.9114844809628</v>
+        <v>381.8988215266947</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29152,7 +29152,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>298.5043682780328</v>
+        <v>232.1671824403948</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29160,7 +29160,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>282.4206764223617</v>
+        <v>226.0586786248606</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29168,7 +29168,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>272.7019129433723</v>
+        <v>342.4499983075712</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29176,7 +29176,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>375.6129216727734</v>
+        <v>311.7255756084336</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29184,7 +29184,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>352.814481525367</v>
+        <v>351.6308214022534</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29192,7 +29192,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>223.0786576839547</v>
+        <v>386.8570361922659</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29200,7 +29200,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>354.4235968826828</v>
+        <v>367.0085000218195</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29208,7 +29208,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>327.1237168219494</v>
+        <v>232.8859506223221</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29216,7 +29216,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>271.4804432913936</v>
+        <v>303.4507261534304</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29224,7 +29224,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>335.3491491248039</v>
+        <v>261.4248295533981</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29232,7 +29232,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>349.2303811361835</v>
+        <v>247.8221144933699</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29240,7 +29240,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>278.3046539455205</v>
+        <v>301.5581271724793</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29248,7 +29248,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>325.2363613963601</v>
+        <v>331.5333178937285</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29256,7 +29256,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>253.3585877252469</v>
+        <v>244.8388275552722</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29264,7 +29264,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>381.19145651241</v>
+        <v>355.1264650307265</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29272,7 +29272,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>330.9433072230171</v>
+        <v>312.3025428943834</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29280,7 +29280,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>274.8423603899161</v>
+        <v>378.4964802290541</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29288,7 +29288,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>259.1982999748807</v>
+        <v>373.7031225412431</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29296,7 +29296,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>280.9439698045439</v>
+        <v>318.9651470683995</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29304,7 +29304,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>407.2046476038554</v>
+        <v>251.9201464607683</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29312,7 +29312,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>217.8932954092622</v>
+        <v>209.8481314570226</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29320,7 +29320,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>259.5976341102054</v>
+        <v>229.1921130591504</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29328,7 +29328,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>360.7049324305838</v>
+        <v>218.0657525081121</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29336,7 +29336,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>224.9941761012924</v>
+        <v>236.9253253062972</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29344,7 +29344,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>224.191076360954</v>
+        <v>349.6979511189624</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29352,7 +29352,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>316.8872808293981</v>
+        <v>348.5647110187339</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29360,7 +29360,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>379.397588215218</v>
+        <v>205.9213522206368</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29368,7 +29368,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>317.9515620501464</v>
+        <v>240.9255509840054</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29376,7 +29376,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>402.5352902858396</v>
+        <v>230.0380808845395</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29384,7 +29384,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>365.5764134772124</v>
+        <v>329.0477353249888</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29392,7 +29392,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>327.7527354934322</v>
+        <v>364.0943358600176</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29400,7 +29400,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>225.8676190395706</v>
+        <v>295.2018963904231</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29408,7 +29408,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>265.1330571465579</v>
+        <v>361.5382588896478</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29416,7 +29416,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>272.0741214424547</v>
+        <v>281.3809676727898</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29424,7 +29424,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>240.0005105485274</v>
+        <v>352.0911931492709</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29432,7 +29432,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>343.5684136904211</v>
+        <v>284.7649057079319</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29440,7 +29440,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>234.6456344533031</v>
+        <v>318.7448465314801</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29448,7 +29448,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>214.5119623433501</v>
+        <v>334.4902678931782</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29456,7 +29456,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>272.7502293697315</v>
+        <v>375.5584872263734</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29464,7 +29464,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>341.4838613661106</v>
+        <v>323.8544456325775</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29472,7 +29472,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>281.1675534777978</v>
+        <v>274.1860717419839</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29480,7 +29480,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>337.8197577746625</v>
+        <v>367.5652332889601</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29488,7 +29488,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>261.4701247969994</v>
+        <v>349.4917391323876</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29496,7 +29496,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>330.7123749743204</v>
+        <v>270.7873914641064</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29504,7 +29504,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>306.468111473669</v>
+        <v>343.1887139672634</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29512,7 +29512,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>239.5894408966053</v>
+        <v>360.0872958615538</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29520,7 +29520,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>363.2976009827452</v>
+        <v>275.4462066542139</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29528,7 +29528,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>371.270729172542</v>
+        <v>401.3557760037386</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29536,7 +29536,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>209.0938220672955</v>
+        <v>267.1779519997829</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29544,7 +29544,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>374.5714593142914</v>
+        <v>197.4094476672684</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29552,7 +29552,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>305.9305508642312</v>
+        <v>348.715638010856</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29560,7 +29560,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>351.0844080299803</v>
+        <v>229.0258130134523</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29568,7 +29568,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>224.7082764377981</v>
+        <v>365.5773568149522</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29576,7 +29576,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>296.2061426201786</v>
+        <v>246.4975569816498</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29584,7 +29584,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>253.7809297896728</v>
+        <v>253.809803501873</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29592,7 +29592,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>298.4031040057392</v>
+        <v>349.3585253696469</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29600,7 +29600,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>326.2718831413102</v>
+        <v>317.7611106077931</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29608,7 +29608,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>333.2700966403958</v>
+        <v>324.82987228933</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29616,7 +29616,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>325.0358301893084</v>
+        <v>286.7506231010414</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29624,7 +29624,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>244.9936252008712</v>
+        <v>320.0862090307772</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29632,7 +29632,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>353.0634112800928</v>
+        <v>233.7893198956048</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29640,7 +29640,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>345.3424755487139</v>
+        <v>265.4555613351731</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29648,7 +29648,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>299.6275601661332</v>
+        <v>225.7580284374675</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29656,7 +29656,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>311.5904794688915</v>
+        <v>254.5250993311033</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29664,7 +29664,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>283.7270126314281</v>
+        <v>353.6642197937006</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29672,7 +29672,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>366.1284893961661</v>
+        <v>316.6863646282537</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29680,7 +29680,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>292.1884284112544</v>
+        <v>242.9933150874812</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29688,7 +29688,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>403.8150034904163</v>
+        <v>377.6747989272406</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29696,7 +29696,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>257.3613616852656</v>
+        <v>377.7944977096123</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29704,7 +29704,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>394.3811829304242</v>
+        <v>339.3177925003037</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29712,7 +29712,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>368.1236822037012</v>
+        <v>394.3452469411617</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29720,7 +29720,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>350.9857376087542</v>
+        <v>279.3459482136249</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29728,7 +29728,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>364.3287716922218</v>
+        <v>236.7701824581405</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29736,7 +29736,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>339.5206914625869</v>
+        <v>285.3039759791885</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29744,7 +29744,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>303.6593923013924</v>
+        <v>205.2213156786798</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29752,7 +29752,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>334.8517699288367</v>
+        <v>387.4466522536104</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29760,7 +29760,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>327.5380844522451</v>
+        <v>377.7533990972279</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29768,7 +29768,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>310.9587215996885</v>
+        <v>229.1130998857135</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29776,7 +29776,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>258.1100477944308</v>
+        <v>369.3796585833593</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29784,7 +29784,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>351.4269724021819</v>
+        <v>244.6984043406012</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29792,7 +29792,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>258.7985014145244</v>
+        <v>229.9284592243214</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29800,7 +29800,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>396.2927955944213</v>
+        <v>299.223872737998</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29808,7 +29808,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>238.332399962323</v>
+        <v>323.2794510999705</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29816,7 +29816,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>274.9271209022821</v>
+        <v>346.1629732818862</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29824,7 +29824,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>350.2344839381665</v>
+        <v>287.3708202707742</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29832,7 +29832,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>317.2120901799311</v>
+        <v>219.4507977816943</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29840,7 +29840,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>354.8710913826482</v>
+        <v>344.4618815006555</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29848,7 +29848,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>367.357722022307</v>
+        <v>243.9324166517717</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29856,7 +29856,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>381.6968412691331</v>
+        <v>227.2298194051164</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29864,7 +29864,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>320.7020944223941</v>
+        <v>247.2250538061912</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29872,7 +29872,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>367.879556378906</v>
+        <v>207.9239724923228</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29880,7 +29880,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>366.9561898954066</v>
+        <v>255.5105424918718</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29888,7 +29888,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>290.0752727654673</v>
+        <v>274.7196063654237</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29896,7 +29896,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>289.5543004627454</v>
+        <v>343.6188596761602</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29904,7 +29904,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>332.7099026881672</v>
+        <v>273.8167676813559</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29912,7 +29912,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>389.1827748581748</v>
+        <v>278.0410977168326</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29920,7 +29920,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>306.1949165355029</v>
+        <v>303.8993713497562</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29928,7 +29928,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>373.010919777306</v>
+        <v>258.1739009457468</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29936,7 +29936,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>314.785321935047</v>
+        <v>342.1268913223809</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29944,7 +29944,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>371.7564618756793</v>
+        <v>201.0428941046122</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29952,7 +29952,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>366.8712289799172</v>
+        <v>246.1989205069696</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29960,7 +29960,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>321.5230508124119</v>
+        <v>264.8462197277852</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29968,7 +29968,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>290.8630390374684</v>
+        <v>262.2811606949724</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29976,7 +29976,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>362.8271578624016</v>
+        <v>233.0931359919422</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29984,7 +29984,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>289.9373000111726</v>
+        <v>246.7089730132492</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29992,7 +29992,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>369.3097334385081</v>
+        <v>225.7084878791914</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -30000,7 +30000,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>230.3862225877603</v>
+        <v>267.4928032073785</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30008,7 +30008,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>286.6508336054007</v>
+        <v>215.2046411640257</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30016,7 +30016,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>349.1661351684118</v>
+        <v>258.9109885748888</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30024,7 +30024,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>252.9676304832187</v>
+        <v>307.8650573459418</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30032,7 +30032,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>235.3479817155394</v>
+        <v>252.3069657320703</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30040,7 +30040,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>354.4280708161789</v>
+        <v>297.9455766028302</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30048,7 +30048,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>317.9866916486202</v>
+        <v>285.4470694913578</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30056,7 +30056,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>327.9866460102955</v>
+        <v>290.7652880755004</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30064,7 +30064,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>341.9518760877568</v>
+        <v>346.01999414388</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30072,7 +30072,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>285.9166083756704</v>
+        <v>278.3144376126896</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30080,7 +30080,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>305.269299632477</v>
+        <v>267.9959513342901</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30088,7 +30088,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>247.4669395776147</v>
+        <v>269.2158742422392</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30096,7 +30096,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>353.1772752116098</v>
+        <v>217.477199524821</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30104,7 +30104,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>315.4719469821908</v>
+        <v>295.4082433043927</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30112,7 +30112,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>181.864642833603</v>
+        <v>255.6653103144185</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30120,7 +30120,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>326.7877199444684</v>
+        <v>399.4957585826936</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30128,7 +30128,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>281.8626223141644</v>
+        <v>312.1100401469875</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30136,7 +30136,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>266.8882085234099</v>
+        <v>282.3939612473342</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30144,7 +30144,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>376.2040970396437</v>
+        <v>348.7830624495072</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30152,7 +30152,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>233.0922116295157</v>
+        <v>227.1088046975048</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30160,7 +30160,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>256.8934557558002</v>
+        <v>336.6438421360381</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30168,7 +30168,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>322.4955293377643</v>
+        <v>343.4077260852488</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30176,7 +30176,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>391.4973282333348</v>
+        <v>369.8722898258456</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30184,7 +30184,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>257.8054800215189</v>
+        <v>318.9296646841121</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30192,7 +30192,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>232.4462483430009</v>
+        <v>233.388585837997</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30200,7 +30200,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>314.1183703572105</v>
+        <v>231.6839549339987</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30208,7 +30208,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>348.1024620592033</v>
+        <v>341.5825439716381</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30216,7 +30216,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>307.2510572466694</v>
+        <v>379.2300819731418</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30224,7 +30224,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>345.7658030349723</v>
+        <v>295.3890162230846</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30232,7 +30232,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>242.0245422863856</v>
+        <v>266.8948526785017</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30240,7 +30240,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>281.015076631702</v>
+        <v>205.5409069388432</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30248,7 +30248,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>215.5723450207551</v>
+        <v>316.9994306574924</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30256,7 +30256,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>283.2796327631814</v>
+        <v>311.083101846969</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30264,7 +30264,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>317.0005734346021</v>
+        <v>315.7433026389863</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30272,7 +30272,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>256.4113747107892</v>
+        <v>293.2419117674435</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30280,7 +30280,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>296.1960334001191</v>
+        <v>378.2036349934343</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30288,7 +30288,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>309.4616677537194</v>
+        <v>371.0092626707404</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30296,7 +30296,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>293.7930188793413</v>
+        <v>335.8519882370109</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30304,7 +30304,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>299.7298849891899</v>
+        <v>292.0262098122166</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30312,7 +30312,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>293.2476357370521</v>
+        <v>356.6194126116272</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30320,7 +30320,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>303.3401503120704</v>
+        <v>228.2573291988399</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30328,7 +30328,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>349.6289753755004</v>
+        <v>324.3524237994859</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30336,7 +30336,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>387.8011176167088</v>
+        <v>246.7742971631083</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30344,7 +30344,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>290.7673485969624</v>
+        <v>257.6145245831999</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30352,7 +30352,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>322.8685940124298</v>
+        <v>388.0395555885295</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30360,7 +30360,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>325.3152464903691</v>
+        <v>229.5620979499647</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30368,7 +30368,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>394.759455365672</v>
+        <v>284.5149309292014</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30376,7 +30376,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>356.956671206869</v>
+        <v>304.6501725535085</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30384,7 +30384,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>207.2492808748867</v>
+        <v>294.9538929565738</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30392,7 +30392,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>367.4812503763691</v>
+        <v>348.8895170153936</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30400,7 +30400,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>338.6176542047752</v>
+        <v>218.7900991204077</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30408,7 +30408,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>271.8285044948211</v>
+        <v>219.8478971556372</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30416,7 +30416,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>359.6754284737993</v>
+        <v>267.6099589533314</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30424,7 +30424,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>339.2126312804367</v>
+        <v>343.1786104147008</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30432,7 +30432,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>333.0358168781888</v>
+        <v>341.7181487235288</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30440,7 +30440,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>305.1185571869781</v>
+        <v>333.5104546992721</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30448,7 +30448,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>292.4965354079635</v>
+        <v>286.3329818948606</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30456,7 +30456,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>242.3416182198911</v>
+        <v>297.3646539472547</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30464,7 +30464,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>400.9731054053127</v>
+        <v>356.7186070132895</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30472,7 +30472,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>293.13907097769</v>
+        <v>258.5297086682581</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30480,7 +30480,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>236.1217368621562</v>
+        <v>276.0614802727949</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30488,7 +30488,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>218.2727958568692</v>
+        <v>223.3899494884799</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30496,7 +30496,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>348.6891373302261</v>
+        <v>212.9685582180286</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30504,7 +30504,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>222.51729401964</v>
+        <v>369.9266133220318</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30512,7 +30512,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>371.2355433184809</v>
+        <v>225.3936798136762</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30520,7 +30520,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>307.9991273724299</v>
+        <v>236.1157165553672</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30528,7 +30528,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>253.742472438308</v>
+        <v>349.8267422160142</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30536,7 +30536,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>274.7344167308818</v>
+        <v>308.5902210905671</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30544,7 +30544,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>238.5110532925701</v>
+        <v>324.4799825553594</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30552,7 +30552,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>295.6419573182411</v>
+        <v>311.7798094721538</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30560,7 +30560,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>324.8879936170785</v>
+        <v>386.527888451243</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30568,7 +30568,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>390.0171753377237</v>
+        <v>353.5607328722411</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30576,7 +30576,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>310.6032644484113</v>
+        <v>336.5910955278508</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30584,7 +30584,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>353.5738691173496</v>
+        <v>278.5579170560263</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30592,7 +30592,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>247.2626848334278</v>
+        <v>360.3870139539943</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30600,7 +30600,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>352.7544551152128</v>
+        <v>264.1934968995413</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30608,7 +30608,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>229.0594723658189</v>
+        <v>280.4810172014355</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30616,7 +30616,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>340.072553602749</v>
+        <v>264.5658947871964</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30624,7 +30624,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>313.6769912090494</v>
+        <v>365.8609050672272</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30632,7 +30632,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>383.9209982294119</v>
+        <v>361.1990874715587</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30640,7 +30640,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>354.6679402559813</v>
+        <v>235.4272857558924</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30648,7 +30648,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>235.0434379693123</v>
+        <v>200.928418632389</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30656,7 +30656,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>297.389675734665</v>
+        <v>348.7346800084142</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30664,7 +30664,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>219.65262996973</v>
+        <v>368.5939425464453</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30672,7 +30672,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>372.7504378205067</v>
+        <v>270.7614041801692</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30680,7 +30680,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>357.7211765653406</v>
+        <v>255.9479543437787</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30688,7 +30688,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>233.9958432792223</v>
+        <v>264.3374520708379</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30696,7 +30696,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>253.2151205686215</v>
+        <v>325.901233469911</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30704,7 +30704,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>300.6678669995875</v>
+        <v>363.058904123353</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30712,7 +30712,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>356.428397539152</v>
+        <v>320.202040929933</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30720,7 +30720,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>257.8379091128334</v>
+        <v>239.3073667319236</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30728,7 +30728,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>271.3041871266315</v>
+        <v>382.7611180953827</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30736,7 +30736,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>303.1254347844413</v>
+        <v>281.5399832261204</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30744,7 +30744,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>360.2762908533343</v>
+        <v>304.1961923406485</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30752,7 +30752,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>383.480953870716</v>
+        <v>383.3513930172006</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30760,7 +30760,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>272.6608491589081</v>
+        <v>355.8363729304159</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30768,7 +30768,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>293.6199385039452</v>
+        <v>286.5087106057595</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30776,7 +30776,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>305.6518236109681</v>
+        <v>314.0391176801528</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30784,7 +30784,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>284.9078930178366</v>
+        <v>212.1129756393827</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30792,7 +30792,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>268.8636444692095</v>
+        <v>295.4113931423857</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30800,7 +30800,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>277.0832170178966</v>
+        <v>303.3643968579546</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30808,7 +30808,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>379.0920136992518</v>
+        <v>347.4776944393266</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30816,7 +30816,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>204.1680775933926</v>
+        <v>258.1028038796926</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30824,7 +30824,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>307.140705360962</v>
+        <v>271.1606542920649</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30832,7 +30832,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>273.837709092034</v>
+        <v>256.9158065273626</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30840,7 +30840,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>297.0352228854478</v>
+        <v>309.8401320816114</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30848,7 +30848,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>393.9121983952467</v>
+        <v>216.9902389029615</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30856,7 +30856,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>244.0600880384479</v>
+        <v>271.4362007625901</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30864,7 +30864,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>250.5815320433713</v>
+        <v>218.3267913520355</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30872,7 +30872,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>280.8772231731442</v>
+        <v>308.1657434741308</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30880,7 +30880,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>301.9869746145226</v>
+        <v>323.9016750688228</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30888,7 +30888,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>391.4605390426843</v>
+        <v>336.3993556811876</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30896,7 +30896,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>360.4614394576843</v>
+        <v>281.5661067804739</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30904,7 +30904,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>322.4706524907222</v>
+        <v>195.3725792264597</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30912,7 +30912,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>263.6663673212921</v>
+        <v>325.2195746090719</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30920,7 +30920,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>222.2384194805189</v>
+        <v>245.8402844752476</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30928,7 +30928,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>246.5072538371355</v>
+        <v>382.3232403099373</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30936,7 +30936,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>333.3591656638669</v>
+        <v>281.8905119610046</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30944,7 +30944,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>311.986160135482</v>
+        <v>224.2515754634166</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30952,7 +30952,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>335.1578321690918</v>
+        <v>353.5129516431098</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30960,7 +30960,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>365.5503750620751</v>
+        <v>329.1393122407329</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30968,7 +30968,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>222.8410173469499</v>
+        <v>380.8288800750919</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30976,7 +30976,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>299.7477273216391</v>
+        <v>216.5822523715023</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30984,7 +30984,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>203.7299501668111</v>
+        <v>233.7230632144046</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30992,7 +30992,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>363.8193888032259</v>
+        <v>284.2776797583583</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -31000,7 +31000,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>206.5308308092929</v>
+        <v>309.1465876695978</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31008,7 +31008,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>291.498697904847</v>
+        <v>240.5239509519878</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31016,7 +31016,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>283.5128990449737</v>
+        <v>330.7987024161805</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31024,7 +31024,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>324.402948918374</v>
+        <v>244.6650677635608</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31032,7 +31032,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>324.7680747940477</v>
+        <v>231.4881040656913</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31040,7 +31040,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>221.6044897856326</v>
+        <v>252.7193031514771</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31048,7 +31048,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>186.540839497214</v>
+        <v>312.4192132136123</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31056,7 +31056,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>291.58154422941</v>
+        <v>393.0317271988594</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31064,7 +31064,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>270.0168356811986</v>
+        <v>315.9579318968402</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31072,7 +31072,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>321.492417176163</v>
+        <v>318.8605780366129</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31080,7 +31080,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>220.4927151210032</v>
+        <v>234.641226701829</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31088,7 +31088,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>234.1614537350856</v>
+        <v>208.7567177702936</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31096,7 +31096,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>225.317847305433</v>
+        <v>206.5812680541492</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31104,7 +31104,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>344.4663346175755</v>
+        <v>312.6391681406858</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31112,7 +31112,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>354.8762949206551</v>
+        <v>383.1399812190213</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31120,7 +31120,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>399.48113389954</v>
+        <v>306.0143246660557</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31128,7 +31128,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>232.9854259682606</v>
+        <v>318.2102822610062</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31136,7 +31136,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>349.4289966481767</v>
+        <v>303.6220486835345</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31144,7 +31144,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>273.5714167002499</v>
+        <v>352.7250694347642</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31152,7 +31152,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>221.666371394805</v>
+        <v>229.2935264354056</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31160,7 +31160,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>336.7163212747897</v>
+        <v>335.088046237518</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31168,7 +31168,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>297.9373165015343</v>
+        <v>280.8873907224785</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31176,7 +31176,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>359.9014375041526</v>
+        <v>339.8424315939732</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31184,7 +31184,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>290.5140606486962</v>
+        <v>239.4837917977192</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31192,7 +31192,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>299.8256790099588</v>
+        <v>212.3364838899938</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31200,7 +31200,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>207.7003028484788</v>
+        <v>206.5865720873128</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31208,7 +31208,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>270.6314780334026</v>
+        <v>257.3422657834989</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31216,7 +31216,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>342.6081711624768</v>
+        <v>355.0602946957753</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31224,7 +31224,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>272.1913168018377</v>
+        <v>306.5090702829431</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31232,7 +31232,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>254.7325760239113</v>
+        <v>354.3086272620847</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31240,7 +31240,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>287.8142743006722</v>
+        <v>359.2401453751937</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31248,7 +31248,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>249.5912913371822</v>
+        <v>348.2585799295534</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31256,7 +31256,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>225.5148071268674</v>
+        <v>302.6760172944874</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31264,7 +31264,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>311.8844207983786</v>
+        <v>301.5035448830093</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31272,7 +31272,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>268.1334932999919</v>
+        <v>250.4945526512975</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31280,7 +31280,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>210.8596341619145</v>
+        <v>291.954590925469</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31288,7 +31288,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>303.4866248728002</v>
+        <v>340.6544731660816</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31296,7 +31296,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>273.2093425675665</v>
+        <v>272.5079172809566</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31304,7 +31304,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>320.1027422620058</v>
+        <v>243.0785057271441</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31312,7 +31312,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>277.8110173517808</v>
+        <v>313.6629682133562</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31320,7 +31320,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>302.5173865177482</v>
+        <v>231.8036033127303</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31328,7 +31328,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>323.7651491662172</v>
+        <v>288.942335018758</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31336,7 +31336,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>353.8298961240317</v>
+        <v>280.6159330167648</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31344,7 +31344,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>298.6764746469356</v>
+        <v>228.0730404713393</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31352,7 +31352,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>214.7899589491278</v>
+        <v>321.0473491923431</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31360,7 +31360,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>287.724288560282</v>
+        <v>317.4855181319759</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31368,7 +31368,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>254.3581907336851</v>
+        <v>372.6447741962235</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31376,7 +31376,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>304.6767310152138</v>
+        <v>276.2682217951228</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31384,7 +31384,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>268.5022192753798</v>
+        <v>305.3530220712639</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31392,7 +31392,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>368.8655436782879</v>
+        <v>231.9123789777152</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31400,7 +31400,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>196.8500369717417</v>
+        <v>262.5238591261016</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31408,7 +31408,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>305.1737989013048</v>
+        <v>356.9548179411526</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31416,7 +31416,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>279.2464792224221</v>
+        <v>246.8591324494945</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31424,7 +31424,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>399.5981159687062</v>
+        <v>281.1882514676719</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31432,7 +31432,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>361.8169375918458</v>
+        <v>235.9909804498394</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31440,7 +31440,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>304.5692230157343</v>
+        <v>370.4458858334202</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31448,7 +31448,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>325.377957957405</v>
+        <v>382.1459290602058</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31456,7 +31456,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>329.5860515191241</v>
+        <v>254.4783874263722</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31464,7 +31464,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>239.991547969808</v>
+        <v>324.5056330941383</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31472,7 +31472,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>236.7019469141908</v>
+        <v>304.4061614697832</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31480,7 +31480,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>349.3873721969528</v>
+        <v>371.9960206806937</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31488,7 +31488,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>224.3726146013514</v>
+        <v>369.4658906719446</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31496,7 +31496,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>368.0991846800288</v>
+        <v>320.0282419866227</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31504,7 +31504,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>368.3149997739355</v>
+        <v>268.2045898180566</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31512,7 +31512,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>274.1408696294756</v>
+        <v>247.6340631451949</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31520,7 +31520,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>286.4840943298569</v>
+        <v>317.8562743154567</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31528,7 +31528,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>236.4871744779683</v>
+        <v>228.7705338749383</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31536,7 +31536,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>261.1284666031214</v>
+        <v>225.7467981056596</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31544,7 +31544,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>363.957796117156</v>
+        <v>248.5369750629705</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31552,7 +31552,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>355.5762157496818</v>
+        <v>290.1425901003483</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31560,7 +31560,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>332.0897154580333</v>
+        <v>288.2228396141969</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31568,7 +31568,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>359.0354814220941</v>
+        <v>368.181566244037</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31576,7 +31576,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>338.4332569418197</v>
+        <v>388.8849144516176</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31584,7 +31584,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>217.6610045476539</v>
+        <v>278.910974784502</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31592,7 +31592,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>241.3298539327415</v>
+        <v>257.5075518055016</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31600,7 +31600,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>247.8367679260044</v>
+        <v>321.9877518697483</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31608,7 +31608,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>366.234268201236</v>
+        <v>381.0494871031783</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31616,7 +31616,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>347.7140927273149</v>
+        <v>379.2808905189288</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31624,7 +31624,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>246.0372496699116</v>
+        <v>354.7601972529329</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31632,7 +31632,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>285.1387087030628</v>
+        <v>230.2945075047467</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31640,7 +31640,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>234.8808619567822</v>
+        <v>275.9858047466035</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31648,7 +31648,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>227.308203716384</v>
+        <v>346.8241339172623</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31656,7 +31656,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>282.7407856483413</v>
+        <v>205.7789448950444</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31664,7 +31664,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>328.9035123236155</v>
+        <v>301.1302977668114</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31672,7 +31672,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>339.3600263012043</v>
+        <v>324.4977191011745</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31680,7 +31680,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>324.601129286026</v>
+        <v>259.5497620341773</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31688,7 +31688,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>235.0384595557612</v>
+        <v>301.523897570401</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31696,7 +31696,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>255.9085130815992</v>
+        <v>217.2641636962234</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31704,7 +31704,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>310.3786072437674</v>
+        <v>208.9949941372905</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31712,7 +31712,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>320.5140504628689</v>
+        <v>357.2228981866659</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31720,7 +31720,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>260.5203018723745</v>
+        <v>199.3157828414442</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31728,7 +31728,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>244.6648266233731</v>
+        <v>349.1257031090739</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31736,7 +31736,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>291.4524343949578</v>
+        <v>273.2961660443842</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31744,7 +31744,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>344.7968788278135</v>
+        <v>303.6538881030088</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31752,7 +31752,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>235.3440751481773</v>
+        <v>272.1840497862133</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31760,7 +31760,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>208.1415798103027</v>
+        <v>321.5247853118878</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31768,7 +31768,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>335.8581212105244</v>
+        <v>230.9335561088158</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31776,7 +31776,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>323.0057466694495</v>
+        <v>346.7144378684433</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31784,7 +31784,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>377.2607453194731</v>
+        <v>307.4910940736723</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31792,7 +31792,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>328.015194100557</v>
+        <v>233.9101803067776</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31800,7 +31800,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>326.3393342845944</v>
+        <v>345.2792689578388</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31808,7 +31808,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>297.8410203758405</v>
+        <v>297.7698743352532</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31816,7 +31816,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>291.16700511266</v>
+        <v>298.273198833753</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31824,7 +31824,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>193.520384821867</v>
+        <v>375.9629232439552</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31832,7 +31832,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>276.060195168195</v>
+        <v>273.9986242209924</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31840,7 +31840,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>217.1020538829226</v>
+        <v>340.3551875403568</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31848,7 +31848,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>243.0104258044918</v>
+        <v>286.9947611179267</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31856,7 +31856,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>280.8480048872394</v>
+        <v>338.6479034339982</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31864,7 +31864,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>232.1837920957701</v>
+        <v>299.5850589408617</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31872,7 +31872,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>212.4780715649207</v>
+        <v>262.2082131236161</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31880,7 +31880,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>325.7163580527765</v>
+        <v>354.077762642253</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31888,7 +31888,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>318.1527568475347</v>
+        <v>313.3420590380789</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31896,7 +31896,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>374.0070138220999</v>
+        <v>272.1164976948378</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31904,7 +31904,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>271.7985337916324</v>
+        <v>307.6776872125791</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31912,7 +31912,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>247.3073943581695</v>
+        <v>388.1520883295355</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31920,7 +31920,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>274.4024861943474</v>
+        <v>358.0652105039854</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31928,7 +31928,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>350.1772871335389</v>
+        <v>281.7133115701026</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31936,7 +31936,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>255.256834898903</v>
+        <v>340.5891697867204</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31944,7 +31944,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>235.1464352556252</v>
+        <v>287.1868416895954</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31952,7 +31952,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>268.5824413230665</v>
+        <v>223.9005459701845</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31960,7 +31960,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>381.4679533888165</v>
+        <v>230.4127255024368</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31968,7 +31968,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>359.6914882080868</v>
+        <v>307.4322001706532</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31976,7 +31976,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>311.9095850254675</v>
+        <v>309.3785906236237</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31984,7 +31984,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>374.0934981729358</v>
+        <v>256.2974484898864</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31992,7 +31992,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>371.2684410366498</v>
+        <v>322.5359625041431</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -32000,7 +32000,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>240.1521021003337</v>
+        <v>245.7156883647501</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32008,7 +32008,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>352.2970936058948</v>
+        <v>282.3299515864254</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32016,7 +32016,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>331.4811451407444</v>
+        <v>285.710823996453</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32024,7 +32024,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>196.6838821215369</v>
+        <v>245.580341113565</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32032,7 +32032,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>255.1613162473168</v>
+        <v>275.8107568020341</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32040,7 +32040,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>321.1964408038825</v>
+        <v>293.0041823124863</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32048,7 +32048,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>368.7890761326178</v>
+        <v>269.1199868002007</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32056,7 +32056,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>285.619632793335</v>
+        <v>258.1993321558244</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32064,7 +32064,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>290.5135858316925</v>
+        <v>282.7747660176155</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32072,7 +32072,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>246.1399779719202</v>
+        <v>255.6820241732149</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32080,7 +32080,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>334.5890484328181</v>
+        <v>330.4057187119076</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32088,7 +32088,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>229.9982945563603</v>
+        <v>371.1342934023812</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32096,7 +32096,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>359.3207494499562</v>
+        <v>276.3982149809921</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32104,7 +32104,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>371.6315435662459</v>
+        <v>271.0645081067259</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32112,7 +32112,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>292.4160476268264</v>
+        <v>306.5607048879197</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32120,7 +32120,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>300.9105841115539</v>
+        <v>309.5198292697145</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32128,7 +32128,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>372.9716195910677</v>
+        <v>220.3870066533085</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32136,7 +32136,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>262.1226612617043</v>
+        <v>248.9539472671457</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32144,7 +32144,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>313.7442425038673</v>
+        <v>224.5465988407989</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32152,7 +32152,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>260.8301672139348</v>
+        <v>358.0037295848259</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32160,7 +32160,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>370.2658776561709</v>
+        <v>373.9506595816139</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32168,7 +32168,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>317.5037583650893</v>
+        <v>371.7240319871287</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32176,7 +32176,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>348.7150508350032</v>
+        <v>229.3667306865129</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32184,7 +32184,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>283.8167861896814</v>
+        <v>290.5710695186302</v>
       </c>
     </row>
   </sheetData>

--- a/EconomicProject/Examples/Report_E5.xlsx
+++ b/EconomicProject/Examples/Report_E5.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>176:201</t>
+    <t>180:206</t>
   </si>
   <si>
-    <t>201:227</t>
+    <t>206:232</t>
   </si>
   <si>
-    <t>227:252</t>
+    <t>232:257</t>
   </si>
   <si>
-    <t>252:277</t>
+    <t>257:283</t>
   </si>
   <si>
-    <t>277:302</t>
+    <t>283:308</t>
   </si>
   <si>
-    <t>302:327</t>
+    <t>308:334</t>
   </si>
   <si>
-    <t>327:352</t>
+    <t>334:360</t>
   </si>
   <si>
-    <t>352:377</t>
+    <t>360:385</t>
   </si>
   <si>
-    <t>377:402</t>
+    <t>385:411</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>176:201</c:v>
+                  <c:v>180:206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201:227</c:v>
+                  <c:v>206:232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227:252</c:v>
+                  <c:v>232:257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>252:277</c:v>
+                  <c:v>257:283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>277:302</c:v>
+                  <c:v>283:308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302:327</c:v>
+                  <c:v>308:334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>327:352</c:v>
+                  <c:v>334:360</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>352:377</c:v>
+                  <c:v>360:385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>377:402</c:v>
+                  <c:v>385:411</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>153</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>264.3075923187029</v>
+        <v>236.7552938910745</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24152,13 +24152,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>332.9585756440358</v>
+        <v>366.6749553314513</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24166,13 +24166,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>239.0984576033059</v>
+        <v>229.1928244844825</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24180,13 +24180,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>221.8097094966432</v>
+        <v>366.4625386520487</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24194,13 +24194,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>247.0353881947368</v>
+        <v>280.2808269932024</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24208,13 +24208,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>338.963569519869</v>
+        <v>378.3693706944155</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24222,13 +24222,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>361.5355267724949</v>
+        <v>202.0139928038958</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24236,13 +24236,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>329.0348185391761</v>
+        <v>252.4322920264218</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24250,13 +24250,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>301.1875059825693</v>
+        <v>340.1865420533797</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24264,7 +24264,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>309.6624703324748</v>
+        <v>285.6721569419869</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24272,7 +24272,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>294.7097518970877</v>
+        <v>344.162416949871</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24280,7 +24280,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>235.5461608154879</v>
+        <v>319.0243237271553</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24288,7 +24288,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>319.8679449498392</v>
+        <v>380.0132122770256</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24296,7 +24296,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>272.0215877895641</v>
+        <v>228.3836575811406</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24304,7 +24304,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>304.8310009472583</v>
+        <v>208.6867907741518</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24312,7 +24312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>303.1833613658717</v>
+        <v>330.3380001318735</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24320,7 +24320,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>383.7485724797623</v>
+        <v>299.9612804420069</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24328,7 +24328,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>268.2384970330093</v>
+        <v>287.6230154689195</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24336,7 +24336,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>367.9591294441192</v>
+        <v>237.7361347661823</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24344,7 +24344,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>366.6581306707619</v>
+        <v>286.4648412299501</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24352,7 +24352,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>285.3110875959966</v>
+        <v>230.5981590645223</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24360,7 +24360,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>299.4803663361475</v>
+        <v>332.829898370865</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24368,7 +24368,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>292.3054883144334</v>
+        <v>226.5353501478974</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24376,7 +24376,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>240.1166010949889</v>
+        <v>325.8851420599136</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24384,7 +24384,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>362.6715880340015</v>
+        <v>223.2722919310273</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24392,7 +24392,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>292.7232805569162</v>
+        <v>381.7428957960024</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24400,7 +24400,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>255.287484987846</v>
+        <v>306.6426679265518</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24408,7 +24408,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>361.5766928647861</v>
+        <v>265.5053009367148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24416,7 +24416,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>393.8664606391923</v>
+        <v>255.0490308439006</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24424,7 +24424,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>228.921742320464</v>
+        <v>269.445390234477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24432,7 +24432,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>254.2755048127231</v>
+        <v>346.6061364256277</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24440,7 +24440,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>209.8528896649679</v>
+        <v>263.9291087501934</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24448,7 +24448,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>257.4543412788531</v>
+        <v>274.7340742155458</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24456,7 +24456,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>361.3382871126483</v>
+        <v>237.8670968422303</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24464,7 +24464,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>305.7380932799496</v>
+        <v>368.3061367363405</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24472,7 +24472,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>243.4302091643044</v>
+        <v>353.0925097501265</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24480,7 +24480,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>236.4024092923284</v>
+        <v>247.6940899027179</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24488,7 +24488,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>271.8686516738891</v>
+        <v>362.2501356230567</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24496,7 +24496,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>295.6888740469207</v>
+        <v>356.5854407396596</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24504,7 +24504,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>216.2748604733519</v>
+        <v>237.0470847339801</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24512,7 +24512,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>189.088615957843</v>
+        <v>299.086304826367</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24520,7 +24520,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>378.9435578107368</v>
+        <v>336.2335728663683</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24528,7 +24528,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>270.6558261154389</v>
+        <v>368.2953931813112</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24536,7 +24536,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>371.1082869663189</v>
+        <v>343.7793066596139</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24544,7 +24544,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>238.4645461643607</v>
+        <v>275.1687533277225</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24552,7 +24552,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>292.4495164043749</v>
+        <v>258.6649271419785</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24560,7 +24560,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>292.6390869062109</v>
+        <v>302.5004602834819</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24568,7 +24568,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>288.9708747969017</v>
+        <v>246.4909803392236</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24576,7 +24576,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>321.4199697239575</v>
+        <v>244.7936973150188</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24584,7 +24584,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>341.9227343742724</v>
+        <v>327.4458529460076</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24592,7 +24592,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>270.8408455945331</v>
+        <v>357.1925410554973</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24600,7 +24600,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>302.9406802380472</v>
+        <v>308.8651311340033</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24608,7 +24608,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>240.8789437733543</v>
+        <v>243.7960953071245</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24616,7 +24616,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>216.0819474389251</v>
+        <v>205.1956589144728</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24624,7 +24624,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>243.8031190461763</v>
+        <v>353.5817204699621</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24632,7 +24632,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>286.4933300584698</v>
+        <v>204.6733456427102</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24640,7 +24640,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>247.6884486856398</v>
+        <v>263.7192932607141</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24648,7 +24648,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>371.1270065364296</v>
+        <v>283.8231550087069</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24656,7 +24656,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>241.7685509607471</v>
+        <v>209.2719972971741</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24664,7 +24664,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>336.5912723456854</v>
+        <v>280.3054972859372</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24672,7 +24672,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>256.2217501427027</v>
+        <v>388.9902050161738</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24680,7 +24680,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>284.082225204524</v>
+        <v>208.0849615036428</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24688,7 +24688,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>316.0608821432813</v>
+        <v>337.2551273341053</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24696,7 +24696,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>214.406394567787</v>
+        <v>284.7189511408319</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24704,7 +24704,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>342.1929342398179</v>
+        <v>219.6419432533879</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24712,7 +24712,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>304.0919078407034</v>
+        <v>264.9121864169483</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24720,7 +24720,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>377.233301690389</v>
+        <v>347.7881089971166</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24728,7 +24728,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>247.2502163539814</v>
+        <v>327.4319848415738</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24736,7 +24736,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>375.2416203730305</v>
+        <v>299.475254464157</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24744,7 +24744,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>184.0291461858696</v>
+        <v>271.5950212441314</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24752,7 +24752,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>227.6308969798558</v>
+        <v>231.6131507419014</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24760,7 +24760,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>336.2984138719507</v>
+        <v>295.0779549695553</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24768,7 +24768,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>370.6436129580109</v>
+        <v>277.2234888025429</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24776,7 +24776,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>263.0745076653961</v>
+        <v>227.4033915676907</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24784,7 +24784,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>310.9135962888422</v>
+        <v>283.6488130077151</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24792,7 +24792,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>240.8573457863002</v>
+        <v>342.1540567242194</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24800,7 +24800,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>270.9553245347325</v>
+        <v>235.5149092960108</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24808,7 +24808,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>352.3864528919566</v>
+        <v>233.4228666575434</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24816,7 +24816,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>374.4829552330868</v>
+        <v>316.5764000107621</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24824,7 +24824,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>250.732288267067</v>
+        <v>252.4627997900569</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24832,7 +24832,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>254.6404200940125</v>
+        <v>193.1668535647821</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24840,7 +24840,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>283.2234942779208</v>
+        <v>364.8327544817148</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24848,7 +24848,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>229.408635793291</v>
+        <v>222.1884173362</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24856,7 +24856,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>250.9081902288115</v>
+        <v>352.152541666576</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24864,7 +24864,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>286.3849977661561</v>
+        <v>283.7205375888855</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24872,7 +24872,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>358.473908847091</v>
+        <v>289.4480119545354</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24880,7 +24880,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>281.0296357585415</v>
+        <v>385.7232247948908</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24888,7 +24888,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>235.8409692791111</v>
+        <v>321.2639288018295</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24896,7 +24896,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>386.0306770632685</v>
+        <v>290.103725029358</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24904,7 +24904,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>293.9316997998337</v>
+        <v>270.6145583848564</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24912,7 +24912,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>341.5890520789233</v>
+        <v>278.1554162424292</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24920,7 +24920,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>239.2999846330106</v>
+        <v>277.9045482368862</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24928,7 +24928,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>275.086160892465</v>
+        <v>267.0725591680261</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24936,7 +24936,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>222.8542895464418</v>
+        <v>312.9339722595482</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24944,7 +24944,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>333.9652059929268</v>
+        <v>278.5830183042159</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24952,7 +24952,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>382.6288518427725</v>
+        <v>327.2040753537224</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24960,7 +24960,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>221.6734139218801</v>
+        <v>282.2491763119212</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24968,7 +24968,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>392.8386773817617</v>
+        <v>315.0341731233742</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24976,7 +24976,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>233.5441831862884</v>
+        <v>307.5355463354356</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24984,7 +24984,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>249.0925169121629</v>
+        <v>353.5660870890266</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24992,7 +24992,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>270.203751939022</v>
+        <v>256.8863172488451</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25000,7 +25000,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>363.8715049060375</v>
+        <v>222.3261766646515</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25008,7 +25008,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>319.6293742466844</v>
+        <v>364.6348061806746</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25016,7 +25016,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>316.8847679086387</v>
+        <v>227.5767213595447</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25024,7 +25024,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>352.9842404953688</v>
+        <v>245.7045886801705</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25032,7 +25032,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>359.9580814810754</v>
+        <v>334.7017083311482</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25040,7 +25040,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>293.3574739339585</v>
+        <v>283.3178546995547</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25048,7 +25048,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>356.8061618115165</v>
+        <v>214.2668877341229</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25056,7 +25056,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>287.3175329631211</v>
+        <v>265.7953194195758</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25064,7 +25064,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>329.9924679381194</v>
+        <v>322.4277150319206</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25072,7 +25072,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>341.6321591795195</v>
+        <v>329.205271463798</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25080,7 +25080,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>355.1489652866567</v>
+        <v>299.6243121185073</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25088,7 +25088,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>308.3630107819207</v>
+        <v>320.4881774300181</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25096,7 +25096,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>325.8297193019563</v>
+        <v>382.9855686177096</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25104,7 +25104,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>215.8799895603849</v>
+        <v>302.4201458020984</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25112,7 +25112,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>285.0752067964935</v>
+        <v>351.0285268566173</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25120,7 +25120,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>267.4347053614255</v>
+        <v>217.6856856881652</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25128,7 +25128,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>402.4947140044256</v>
+        <v>251.4593367678193</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25136,7 +25136,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>298.3160896451495</v>
+        <v>338.5935872195005</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25144,7 +25144,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>354.9837235421351</v>
+        <v>371.6529811423188</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25152,7 +25152,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>336.5341223022833</v>
+        <v>253.1778428363248</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25160,7 +25160,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>318.9875136981487</v>
+        <v>304.5313719705427</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25168,7 +25168,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>247.7819641674187</v>
+        <v>353.3668652808096</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25176,7 +25176,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>329.8460998652191</v>
+        <v>270.80460399763</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25184,7 +25184,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>307.7584627309542</v>
+        <v>227.524333525592</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25192,7 +25192,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>198.394340933674</v>
+        <v>285.8198035453415</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25200,7 +25200,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>238.0613152710135</v>
+        <v>258.4097073736681</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25208,7 +25208,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>214.0317410242427</v>
+        <v>378.8826733129179</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25216,7 +25216,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>254.9413800744937</v>
+        <v>210.9903028632047</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25224,7 +25224,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>216.32546065266</v>
+        <v>281.9197485186605</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25232,7 +25232,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>365.8530489679076</v>
+        <v>207.5237809698176</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25240,7 +25240,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>247.8195834514624</v>
+        <v>359.5321597805783</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25248,7 +25248,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>352.9174625878592</v>
+        <v>233.0502185209158</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25256,7 +25256,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>303.791005312825</v>
+        <v>278.5847917292685</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25264,7 +25264,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>375.1911660713536</v>
+        <v>334.8820528107153</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25272,7 +25272,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>337.0068159448763</v>
+        <v>324.6819764750385</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25280,7 +25280,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>366.7230238431949</v>
+        <v>370.9636521778407</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25288,7 +25288,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>309.1325612034989</v>
+        <v>218.1954063712598</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25296,7 +25296,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>350.845138581757</v>
+        <v>273.8729574079574</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25304,7 +25304,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>233.0464190774469</v>
+        <v>316.2467756500853</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25312,7 +25312,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>286.1009353223789</v>
+        <v>310.609263047336</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25320,7 +25320,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>378.5150882542065</v>
+        <v>326.3574641350996</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25328,7 +25328,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>247.8284284935585</v>
+        <v>362.8000166384945</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25336,7 +25336,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>322.8907889780281</v>
+        <v>330.6265754008147</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25344,7 +25344,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>263.1001405818749</v>
+        <v>269.5995514807341</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25352,7 +25352,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>275.2570116081762</v>
+        <v>326.3926284970909</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25360,7 +25360,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>236.5806277356468</v>
+        <v>261.4313156504362</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25368,7 +25368,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>364.4381839905657</v>
+        <v>252.2663879872759</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25376,7 +25376,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>213.1576050547889</v>
+        <v>349.7162985736095</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25384,7 +25384,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>324.7783631915113</v>
+        <v>362.6836088419406</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25392,7 +25392,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>260.3876385739682</v>
+        <v>370.1415139376526</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25400,7 +25400,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>346.1922655740083</v>
+        <v>385.1952701887732</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25408,7 +25408,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>360.3165610162988</v>
+        <v>236.8115609939502</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25416,7 +25416,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>292.1292995870152</v>
+        <v>231.737452969046</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25424,7 +25424,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>247.5517139825362</v>
+        <v>315.3937624866949</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25432,7 +25432,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>309.8077935606535</v>
+        <v>324.5870014056281</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25440,7 +25440,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>264.8971454573559</v>
+        <v>385.4029755144454</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25448,7 +25448,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>273.2823973992847</v>
+        <v>392.2871749646567</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25456,7 +25456,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>363.5941405469105</v>
+        <v>287.6423565504181</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25464,7 +25464,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>282.4181453126836</v>
+        <v>188.9715478323706</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25472,7 +25472,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>289.3218836718765</v>
+        <v>338.8265676801508</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25480,7 +25480,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>319.6219287847294</v>
+        <v>305.6611993499499</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25488,7 +25488,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>277.9271450097939</v>
+        <v>251.9098872943303</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25496,7 +25496,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>322.5977356481754</v>
+        <v>370.6216772181742</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25504,7 +25504,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>325.6081920062554</v>
+        <v>237.9367606478904</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25512,7 +25512,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>265.1874012988</v>
+        <v>246.2097733981764</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25520,7 +25520,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>319.5026271813651</v>
+        <v>289.9934253470998</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25528,7 +25528,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>371.4938208956308</v>
+        <v>328.4983423872979</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25536,7 +25536,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>270.8507400497251</v>
+        <v>281.0925748141541</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25544,7 +25544,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>255.5622439634681</v>
+        <v>259.9139144147946</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25552,7 +25552,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>285.5221943555549</v>
+        <v>301.7064553835614</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25560,7 +25560,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>209.8764408662881</v>
+        <v>378.970535254442</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25568,7 +25568,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>312.8341558791713</v>
+        <v>339.0405165007102</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25576,7 +25576,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>290.0680297267548</v>
+        <v>281.5111243202701</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25584,7 +25584,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>395.2107116329417</v>
+        <v>330.2090250887913</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25592,7 +25592,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>267.8568640260747</v>
+        <v>319.678142785218</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25600,7 +25600,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>304.3406076746006</v>
+        <v>268.3378274718911</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25608,7 +25608,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>312.8018366175921</v>
+        <v>271.9109747944114</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25616,7 +25616,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>331.9862305215461</v>
+        <v>360.8272520533503</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25624,7 +25624,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>263.83407791132</v>
+        <v>397.4854342057236</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25632,7 +25632,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>278.0325551754616</v>
+        <v>276.3718088506761</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25640,7 +25640,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>228.3471093072221</v>
+        <v>343.5534404409653</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25648,7 +25648,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>338.25750865282</v>
+        <v>241.1388058606555</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25656,7 +25656,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>335.8431524703809</v>
+        <v>313.7416854679627</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25664,7 +25664,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>296.3465355942026</v>
+        <v>363.9085873907737</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25672,7 +25672,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>351.6782263600413</v>
+        <v>271.7414389368593</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25680,7 +25680,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>319.543092556607</v>
+        <v>311.4507231707802</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25688,7 +25688,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>205.0339840549327</v>
+        <v>294.4233992335414</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25696,7 +25696,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>309.8157431566196</v>
+        <v>254.2745035249637</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25704,7 +25704,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>331.3235504385035</v>
+        <v>279.1985907746219</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25712,7 +25712,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>264.9524833177605</v>
+        <v>273.9427124978191</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25720,7 +25720,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>271.4544296554298</v>
+        <v>273.002311656152</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25728,7 +25728,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>320.8067702776113</v>
+        <v>209.2609162521625</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25736,7 +25736,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>395.0041361717955</v>
+        <v>241.2508438295291</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25744,7 +25744,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>356.8570929500403</v>
+        <v>245.471910678231</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25752,7 +25752,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>327.9114848879978</v>
+        <v>292.877301852564</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25760,7 +25760,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>312.1645461809455</v>
+        <v>292.4658510344455</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25768,7 +25768,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>247.161353140832</v>
+        <v>277.9608656740311</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25776,7 +25776,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>215.5455773921395</v>
+        <v>218.990241203629</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25784,7 +25784,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>333.2069573648903</v>
+        <v>335.3178967299385</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25792,7 +25792,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>338.8729739900367</v>
+        <v>237.904411367277</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25800,7 +25800,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>215.9360652427629</v>
+        <v>366.8616219949841</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25808,7 +25808,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>289.4461423852317</v>
+        <v>395.8154369545906</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25816,7 +25816,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>269.5050795078438</v>
+        <v>239.0587649980071</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25824,7 +25824,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>280.2839479144466</v>
+        <v>243.8811922482943</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25832,7 +25832,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>246.5509337318528</v>
+        <v>282.4376087965931</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25840,7 +25840,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>268.6781170288751</v>
+        <v>331.8368423309303</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25848,7 +25848,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>250.8310247980599</v>
+        <v>334.2313210886238</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25856,7 +25856,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>342.9508137486909</v>
+        <v>251.2851631134536</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25864,7 +25864,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>255.0456552619321</v>
+        <v>331.17880707189</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25872,7 +25872,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>331.9698457544869</v>
+        <v>225.9110700736902</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25880,7 +25880,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>268.2665671335254</v>
+        <v>333.9008025864603</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25888,7 +25888,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>225.4597877106617</v>
+        <v>229.2383624098213</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25896,7 +25896,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>329.0592263582819</v>
+        <v>231.5491624555153</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25904,7 +25904,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>348.59781068424</v>
+        <v>269.1216283962675</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25912,7 +25912,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>345.5494292098658</v>
+        <v>254.7303871768148</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25920,7 +25920,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>366.4556122481009</v>
+        <v>314.6009585165609</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25928,7 +25928,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>275.8461289239346</v>
+        <v>377.2933516527491</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25936,7 +25936,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>245.0690310760861</v>
+        <v>351.2086304344231</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25944,7 +25944,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>307.9581047049978</v>
+        <v>334.7853774482436</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25952,7 +25952,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>231.1850692512045</v>
+        <v>308.9272914828938</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25960,7 +25960,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>363.5642816664637</v>
+        <v>241.9238996004036</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25968,7 +25968,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>333.8229280948441</v>
+        <v>278.0458280541742</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25976,7 +25976,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>331.6788550280768</v>
+        <v>350.3490803097037</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25984,7 +25984,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>278.2710859678035</v>
+        <v>341.4794572721767</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25992,7 +25992,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>284.4481232341827</v>
+        <v>213.3412037340088</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -26000,7 +26000,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>354.2993608645751</v>
+        <v>217.4517667129489</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26008,7 +26008,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>308.1541741430936</v>
+        <v>326.1708962592602</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26016,7 +26016,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>350.9911146313545</v>
+        <v>398.0464132331212</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26024,7 +26024,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>304.699975999054</v>
+        <v>299.0056282786651</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26032,7 +26032,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>367.5124291565202</v>
+        <v>261.7930569454373</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26040,7 +26040,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>343.5838555928412</v>
+        <v>233.4997571065318</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26048,7 +26048,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>387.0334265873738</v>
+        <v>217.0874033466505</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26056,7 +26056,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>302.2093850612198</v>
+        <v>289.5711981841964</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26064,7 +26064,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>349.7060607141256</v>
+        <v>235.9685043576768</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26072,7 +26072,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>289.3286404969276</v>
+        <v>294.6374140744947</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26080,7 +26080,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>263.6497198069827</v>
+        <v>208.4048297188292</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26088,7 +26088,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>378.4475805646152</v>
+        <v>291.3974502524102</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26096,7 +26096,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>303.5874545692666</v>
+        <v>319.7748795973293</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26104,7 +26104,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>258.7094200948725</v>
+        <v>320.0652648735197</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26112,7 +26112,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>298.6687996785659</v>
+        <v>260.6140008415351</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26120,7 +26120,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>268.6363568587124</v>
+        <v>359.9330422792858</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26128,7 +26128,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>378.1963911215995</v>
+        <v>270.6349391168801</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26136,7 +26136,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>305.9886463901946</v>
+        <v>308.5584354140358</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26144,7 +26144,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>302.0954864610246</v>
+        <v>281.3465356334651</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26152,7 +26152,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>317.4148802379891</v>
+        <v>234.6683434844792</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26160,7 +26160,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>270.1252387331297</v>
+        <v>263.3605530117715</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26168,7 +26168,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>374.2201498436123</v>
+        <v>340.7686030803757</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26176,7 +26176,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>340.554938654158</v>
+        <v>180.3665733452</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26184,7 +26184,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>260.7571857376856</v>
+        <v>208.2342576137641</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26192,7 +26192,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>266.6062443498095</v>
+        <v>277.4813141160723</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26200,7 +26200,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>267.0380996283458</v>
+        <v>235.6843628793432</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26208,7 +26208,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>374.203416312776</v>
+        <v>320.2474258500835</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26216,7 +26216,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>258.1231613157592</v>
+        <v>357.4246321963661</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26224,7 +26224,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>352.3383772063592</v>
+        <v>292.2053236560768</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26232,7 +26232,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>209.4494216868435</v>
+        <v>288.6723995617426</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26240,7 +26240,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>342.7551854396374</v>
+        <v>277.3659509521341</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26248,7 +26248,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>304.3767817144966</v>
+        <v>312.3470642851578</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26256,7 +26256,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>224.8860050009847</v>
+        <v>293.0766556195166</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26264,7 +26264,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>379.3370036454917</v>
+        <v>322.9325262674378</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26272,7 +26272,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>274.6678504967689</v>
+        <v>216.0759662093708</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26280,7 +26280,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>264.3326871275414</v>
+        <v>359.6186643276873</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26288,7 +26288,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>287.5052322437361</v>
+        <v>297.5515527486398</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26296,7 +26296,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>251.1577191689899</v>
+        <v>240.3164762358594</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26304,7 +26304,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>326.6636790131848</v>
+        <v>366.1440904163592</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26312,7 +26312,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>231.2511809926744</v>
+        <v>343.3265010418122</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26320,7 +26320,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>333.9598881411114</v>
+        <v>337.8958817398457</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26328,7 +26328,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>249.5453922484703</v>
+        <v>261.7965405217458</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26336,7 +26336,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>366.5087015026859</v>
+        <v>310.0199529068787</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26344,7 +26344,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>332.4770539776445</v>
+        <v>196.7909003134777</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26352,7 +26352,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>308.842779386306</v>
+        <v>309.9827491196086</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26360,7 +26360,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>393.2016865730636</v>
+        <v>264.9334927426694</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26368,7 +26368,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>258.3404750117614</v>
+        <v>267.6629896374857</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26376,7 +26376,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>279.1603065363987</v>
+        <v>370.4415763056739</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26384,7 +26384,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>273.9120139624328</v>
+        <v>252.2452699805329</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26392,7 +26392,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>374.2218334434758</v>
+        <v>354.5926209767086</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26400,7 +26400,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>311.1928390475908</v>
+        <v>323.8822603737698</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26408,7 +26408,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>376.3248004354854</v>
+        <v>243.8826434411583</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26416,7 +26416,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>327.9425843324156</v>
+        <v>377.9154353181802</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26424,7 +26424,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>360.1483182414774</v>
+        <v>320.8884106723629</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26432,7 +26432,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>351.4424876731105</v>
+        <v>253.4963284348991</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26440,7 +26440,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>285.6918305534566</v>
+        <v>214.0037907104299</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26448,7 +26448,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>368.6262482596937</v>
+        <v>365.6239094011818</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26456,7 +26456,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>283.1419657201006</v>
+        <v>267.4321537456589</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26464,7 +26464,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>272.0502627928749</v>
+        <v>234.2940292080911</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26472,7 +26472,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>390.2596100861047</v>
+        <v>310.1563656120792</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26480,7 +26480,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>308.6901175062708</v>
+        <v>340.2280359752879</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26488,7 +26488,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>355.9005405527387</v>
+        <v>312.7641432232273</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26496,7 +26496,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>228.0564046141502</v>
+        <v>251.635881205416</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26504,7 +26504,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>202.6473784265988</v>
+        <v>215.7411784941948</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26512,7 +26512,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>252.9141987402778</v>
+        <v>209.7682844230903</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26520,7 +26520,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>329.5654799970112</v>
+        <v>327.2686779735062</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26528,7 +26528,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>242.7412565948054</v>
+        <v>305.1353290485945</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26536,7 +26536,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>256.7257910666702</v>
+        <v>345.207153089576</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26544,7 +26544,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>278.9554042372393</v>
+        <v>284.9319043118787</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26552,7 +26552,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>336.959912255153</v>
+        <v>351.1106161838916</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26560,7 +26560,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>310.0859304760424</v>
+        <v>351.6596943573391</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26568,7 +26568,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>249.9812630475999</v>
+        <v>364.6542682254969</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26576,7 +26576,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>296.3389203263168</v>
+        <v>287.8014560428663</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26584,7 +26584,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>277.160306662424</v>
+        <v>334.2476384527048</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26592,7 +26592,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>232.4335999732964</v>
+        <v>292.1326595933028</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26600,7 +26600,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>273.8184477101136</v>
+        <v>300.3656075944011</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26608,7 +26608,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>364.9747553338223</v>
+        <v>251.8941495174585</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26616,7 +26616,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>316.0293260821999</v>
+        <v>350.3723098678098</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26624,7 +26624,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>273.2927791564973</v>
+        <v>263.0454677378225</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26632,7 +26632,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>258.0171758987196</v>
+        <v>323.3958328243075</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26640,7 +26640,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>303.6000890375227</v>
+        <v>333.5469409087623</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26648,7 +26648,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>294.7017084062881</v>
+        <v>333.8974249843261</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26656,7 +26656,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>328.3814994696985</v>
+        <v>323.924637184176</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26664,7 +26664,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>329.9078138235562</v>
+        <v>362.529182500764</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26672,7 +26672,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>364.9697323761058</v>
+        <v>237.5295589513552</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26680,7 +26680,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>380.6182312196103</v>
+        <v>226.6528634682297</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26688,7 +26688,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>237.833769453471</v>
+        <v>273.8180784239643</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26696,7 +26696,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>370.5703888433401</v>
+        <v>222.8628482955296</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26704,7 +26704,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>347.8787003225587</v>
+        <v>296.4491947300011</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26712,7 +26712,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>338.707198884862</v>
+        <v>271.1725895398687</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26720,7 +26720,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>362.2698692210492</v>
+        <v>340.3947968197868</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26728,7 +26728,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>295.8210768876925</v>
+        <v>368.8160883909731</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26736,7 +26736,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>183.8313837799689</v>
+        <v>319.2690198562743</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26744,7 +26744,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>227.8713243867152</v>
+        <v>248.067315503064</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26752,7 +26752,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>266.3526984585146</v>
+        <v>328.0237230986871</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26760,7 +26760,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>316.0900716913514</v>
+        <v>372.9328810815562</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26768,7 +26768,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>277.5570313885715</v>
+        <v>347.800678926014</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26776,7 +26776,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>217.1813956236604</v>
+        <v>318.5289446087176</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26784,7 +26784,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>369.3356026639492</v>
+        <v>258.6702024685462</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26792,7 +26792,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>254.472325374321</v>
+        <v>269.2374918529335</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26800,7 +26800,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>205.2545899625569</v>
+        <v>336.2601492435857</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26808,7 +26808,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>365.6427047693892</v>
+        <v>294.6620992527469</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26816,7 +26816,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>292.3722978793077</v>
+        <v>247.5722236692476</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26824,7 +26824,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>319.6173922080536</v>
+        <v>284.5422400042203</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26832,7 +26832,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>321.4941870014717</v>
+        <v>303.8955942739821</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26840,7 +26840,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>360.5911351076065</v>
+        <v>321.3621001078572</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26848,7 +26848,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>221.4751555202054</v>
+        <v>297.3098423966774</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26856,7 +26856,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>325.8133885566297</v>
+        <v>392.3608412780664</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26864,7 +26864,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>348.3800541005833</v>
+        <v>214.9611676718677</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26872,7 +26872,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>213.9185154914436</v>
+        <v>260.1053911872467</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26880,7 +26880,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>288.2880478333586</v>
+        <v>251.7479587915061</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26888,7 +26888,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>291.3590232306675</v>
+        <v>269.8419614863017</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26896,7 +26896,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>325.3030204722062</v>
+        <v>270.8975913231151</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26904,7 +26904,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>215.7026422952901</v>
+        <v>273.051249051456</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26912,7 +26912,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>262.9123967434649</v>
+        <v>235.0310944856601</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26920,7 +26920,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>366.2005194750034</v>
+        <v>393.4505371965265</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26928,7 +26928,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>371.9844355713781</v>
+        <v>259.803413463166</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26936,7 +26936,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>318.6576607944052</v>
+        <v>318.9602196532105</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26944,7 +26944,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>342.7678271474373</v>
+        <v>290.4602526948245</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26952,7 +26952,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>274.5028609706434</v>
+        <v>257.4665465300781</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26960,7 +26960,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>284.6508996396451</v>
+        <v>328.2068661636783</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26968,7 +26968,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>248.3995765069042</v>
+        <v>357.2435445395805</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26976,7 +26976,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>264.3533700576763</v>
+        <v>315.3254924208532</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26984,7 +26984,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>209.2822891692069</v>
+        <v>319.2587994100744</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26992,7 +26992,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>316.5394145910075</v>
+        <v>309.7122397788607</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -27000,7 +27000,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>377.5499872680619</v>
+        <v>301.5939210070608</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27008,7 +27008,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>206.8449287205948</v>
+        <v>243.403536241577</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27016,7 +27016,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>243.626187764778</v>
+        <v>248.0784487258487</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27024,7 +27024,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>346.698962603364</v>
+        <v>379.9577720590587</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27032,7 +27032,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>240.7780261113545</v>
+        <v>336.0634364417469</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27040,7 +27040,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>329.497108084577</v>
+        <v>256.6276795940811</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27048,7 +27048,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>330.5229135319275</v>
+        <v>315.9885750804811</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27056,7 +27056,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>270.2095958437568</v>
+        <v>356.8127772589653</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27064,7 +27064,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>227.2721806015491</v>
+        <v>352.8534983013</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27072,7 +27072,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>241.7841185820501</v>
+        <v>363.3396422819855</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27080,7 +27080,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>241.0049968052684</v>
+        <v>268.2364909736538</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27088,7 +27088,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>235.9972773537573</v>
+        <v>212.5243188056166</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27096,7 +27096,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>279.4804814145384</v>
+        <v>345.9349436443694</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27104,7 +27104,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>233.1101106467031</v>
+        <v>238.8096294545892</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27112,7 +27112,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>376.0741967865422</v>
+        <v>353.3648831690541</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27120,7 +27120,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>226.9400915516227</v>
+        <v>272.8438328325558</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27128,7 +27128,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>265.3911457352808</v>
+        <v>199.7519622820279</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27136,7 +27136,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>392.9057673363998</v>
+        <v>290.1242250139634</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27144,7 +27144,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>249.8038256167992</v>
+        <v>222.3311325323802</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27152,7 +27152,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>342.0558954721843</v>
+        <v>241.6600463796002</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27160,7 +27160,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>357.3369000162674</v>
+        <v>293.2253885987596</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27168,7 +27168,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>302.8345320064553</v>
+        <v>307.076589934528</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27176,7 +27176,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>324.4951748995645</v>
+        <v>293.9316864204896</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27184,7 +27184,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>218.6159294557648</v>
+        <v>259.4605135712734</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27192,7 +27192,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>294.2077878279441</v>
+        <v>346.9948829782638</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27200,7 +27200,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>344.9753245204615</v>
+        <v>321.2056346069746</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27208,7 +27208,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>328.8307032795781</v>
+        <v>372.1207241375947</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27216,7 +27216,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>330.9022423961223</v>
+        <v>318.3586679382849</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27224,7 +27224,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>242.405527626244</v>
+        <v>264.0531647646058</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27232,7 +27232,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>211.244395582373</v>
+        <v>283.3075477885114</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27240,7 +27240,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>267.0421187712566</v>
+        <v>256.6748734419261</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27248,7 +27248,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>278.9550439315304</v>
+        <v>199.1488048152203</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27256,7 +27256,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>319.0827941160114</v>
+        <v>346.4972620355838</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27264,7 +27264,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>317.1828728169808</v>
+        <v>356.037423989139</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27272,7 +27272,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>362.9250056634332</v>
+        <v>294.5592900407481</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27280,7 +27280,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>397.4927394049424</v>
+        <v>238.4346357061392</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27288,7 +27288,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>241.3751190037939</v>
+        <v>309.468372124287</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27296,7 +27296,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>373.4872695368093</v>
+        <v>398.6404918520673</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27304,7 +27304,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>287.9264205392778</v>
+        <v>247.5378434135704</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27312,7 +27312,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>262.4130610928052</v>
+        <v>346.4119664913917</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27320,7 +27320,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>335.8636999929716</v>
+        <v>370.7079147259755</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27328,7 +27328,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>393.9329523525647</v>
+        <v>306.3046535951071</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27336,7 +27336,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>377.5706859436672</v>
+        <v>339.1928620757946</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27344,7 +27344,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>301.3350785483913</v>
+        <v>374.1305564186602</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27352,7 +27352,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>286.791807231829</v>
+        <v>248.3579360582448</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27360,7 +27360,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>253.6822280771392</v>
+        <v>386.2210142813822</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27368,7 +27368,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>219.7183534194832</v>
+        <v>254.7888477491946</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27376,7 +27376,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>389.7825667763704</v>
+        <v>364.7399569859751</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27384,7 +27384,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>238.0891182070977</v>
+        <v>311.1731404677217</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27392,7 +27392,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>221.7071824899676</v>
+        <v>279.2190591287524</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27400,7 +27400,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>247.8873829379935</v>
+        <v>248.4864212624106</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27408,7 +27408,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>328.8633071898099</v>
+        <v>302.6106195694549</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27416,7 +27416,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>336.4904377029321</v>
+        <v>322.1024756584724</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27424,7 +27424,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>250.6529161332151</v>
+        <v>255.5977166740419</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27432,7 +27432,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>234.0383874080212</v>
+        <v>243.1949179035584</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27440,7 +27440,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>296.8912498188166</v>
+        <v>223.4714208701874</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27448,7 +27448,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>371.2539765011008</v>
+        <v>274.6622492571305</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27456,7 +27456,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>370.4039014137177</v>
+        <v>383.3046665834407</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27464,7 +27464,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>271.7043996455088</v>
+        <v>253.5326189817372</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27472,7 +27472,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>237.2672650991376</v>
+        <v>396.8492002530542</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27480,7 +27480,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>370.7636425996227</v>
+        <v>261.0756994887298</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27488,7 +27488,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>249.2438042577533</v>
+        <v>301.2177202763758</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27496,7 +27496,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>381.497418087819</v>
+        <v>239.7628648342503</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27504,7 +27504,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>363.1104045813413</v>
+        <v>287.2646114228756</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27512,7 +27512,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>256.7254347499882</v>
+        <v>221.558905060863</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27520,7 +27520,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>240.9111555769706</v>
+        <v>232.3271214018129</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27528,7 +27528,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>337.7700508683881</v>
+        <v>219.7407498970931</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27536,7 +27536,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>281.7859413422138</v>
+        <v>196.2516219262987</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27544,7 +27544,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>303.8831669603904</v>
+        <v>296.5482075453418</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27552,7 +27552,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>341.0043304434505</v>
+        <v>226.0899222548664</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27560,7 +27560,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>330.330341083267</v>
+        <v>262.1521166258516</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27568,7 +27568,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>249.4321901869615</v>
+        <v>281.5097554173618</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27576,7 +27576,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>259.7047536664233</v>
+        <v>188.8630941718651</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27584,7 +27584,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>271.2932831712228</v>
+        <v>273.6183165735767</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27592,7 +27592,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>318.5045629817358</v>
+        <v>363.6192579998992</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27600,7 +27600,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>353.6568406441104</v>
+        <v>314.1069376301153</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27608,7 +27608,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>230.6339057910677</v>
+        <v>255.639177335154</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27616,7 +27616,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>339.5805406136133</v>
+        <v>294.9772498734915</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27624,7 +27624,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>295.8863705705325</v>
+        <v>317.7069241082703</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27632,7 +27632,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>332.2609121307076</v>
+        <v>239.2263789915276</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27640,7 +27640,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>275.2939491947205</v>
+        <v>260.7871809631745</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27648,7 +27648,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>338.8809997838989</v>
+        <v>374.9278432427911</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27656,7 +27656,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>233.2580447950321</v>
+        <v>368.1824065779674</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27664,7 +27664,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>313.1610730845323</v>
+        <v>210.1226549748608</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27672,7 +27672,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>360.7667023541832</v>
+        <v>233.3270586708743</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27680,7 +27680,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>252.5456514047975</v>
+        <v>360.828214756403</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27688,7 +27688,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>380.1845691466303</v>
+        <v>255.9118079716813</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27696,7 +27696,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>253.1235982768174</v>
+        <v>233.6947425209841</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27704,7 +27704,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>287.3372828056365</v>
+        <v>232.2828850228381</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27712,7 +27712,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>377.5712214398403</v>
+        <v>241.6338652855034</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27720,7 +27720,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>274.5197523894113</v>
+        <v>321.4171865821969</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27728,7 +27728,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>242.8749622535555</v>
+        <v>365.4996781579079</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27736,7 +27736,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>381.1614888564721</v>
+        <v>361.7765459996882</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27744,7 +27744,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>201.1215450858188</v>
+        <v>239.6027074615078</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27752,7 +27752,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>295.4951413485919</v>
+        <v>264.0695909361539</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27760,7 +27760,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>388.5814420190452</v>
+        <v>279.3016662518127</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27768,7 +27768,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>314.931340046631</v>
+        <v>279.7806389071016</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27776,7 +27776,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>284.4772487809777</v>
+        <v>379.7078167605627</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27784,7 +27784,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>304.5895021989172</v>
+        <v>333.105852052307</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27792,7 +27792,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>318.6074976941113</v>
+        <v>303.7082148542158</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27800,7 +27800,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>216.1807279395748</v>
+        <v>217.9908743800278</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27808,7 +27808,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>243.844512798077</v>
+        <v>210.4738635364593</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27816,7 +27816,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>215.4466460822212</v>
+        <v>300.402575351981</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27824,7 +27824,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>242.4081948757569</v>
+        <v>308.6627353241574</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27832,7 +27832,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>254.9055003787868</v>
+        <v>380.9326253661253</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27840,7 +27840,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>238.2007300333913</v>
+        <v>354.6519510876815</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27848,7 +27848,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>233.5956519562511</v>
+        <v>291.012846702499</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27856,7 +27856,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>357.3184257757687</v>
+        <v>208.6646640931213</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27864,7 +27864,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>369.7688430440247</v>
+        <v>267.015182059027</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27872,7 +27872,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>272.7395097805424</v>
+        <v>308.1634746370772</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27880,7 +27880,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>176.2646649680256</v>
+        <v>361.669943429374</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27888,7 +27888,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>300.2877195535574</v>
+        <v>353.8645964903117</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27896,7 +27896,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>250.4402009853634</v>
+        <v>240.6873234159073</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27904,7 +27904,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>316.0208844163841</v>
+        <v>363.0702359038436</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27912,7 +27912,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>231.2940966316069</v>
+        <v>321.7900055206533</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27920,7 +27920,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>358.6107572084291</v>
+        <v>207.4814883536191</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27928,7 +27928,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>337.2272109680156</v>
+        <v>286.1514220931502</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27936,7 +27936,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>217.2965398735168</v>
+        <v>329.1582154433604</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27944,7 +27944,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>372.4409916082133</v>
+        <v>369.0723275489469</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27952,7 +27952,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>245.8608501504544</v>
+        <v>341.5654033412811</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27960,7 +27960,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>344.724075121199</v>
+        <v>328.8931740138607</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27968,7 +27968,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>275.8695855465404</v>
+        <v>282.8478599412873</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27976,7 +27976,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>272.6480206959014</v>
+        <v>265.8783365744383</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27984,7 +27984,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>333.2253739196215</v>
+        <v>318.0990870864268</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27992,7 +27992,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>345.4319701810383</v>
+        <v>331.6999381143282</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -28000,7 +28000,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>260.0613886344353</v>
+        <v>327.7847105308225</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28008,7 +28008,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>317.1115136963369</v>
+        <v>221.7872136761166</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28016,7 +28016,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>374.378323249322</v>
+        <v>278.7683255085893</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28024,7 +28024,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>362.2100947665102</v>
+        <v>378.507474548873</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28032,7 +28032,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>300.1385693866915</v>
+        <v>216.8940318802944</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28040,7 +28040,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>262.4052552730205</v>
+        <v>278.1870525987827</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28048,7 +28048,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>383.9968395342701</v>
+        <v>361.6012011166597</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28056,7 +28056,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>237.625280737848</v>
+        <v>376.5883445487783</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28064,7 +28064,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>218.9450863795132</v>
+        <v>376.9907269445112</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28072,7 +28072,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>251.27321078138</v>
+        <v>306.3262749195578</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28080,7 +28080,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>359.0966513861838</v>
+        <v>288.1315115596138</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28088,7 +28088,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>321.1026123775885</v>
+        <v>299.3155453239587</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28096,7 +28096,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>355.9995739267622</v>
+        <v>344.8546912190557</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28104,7 +28104,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>318.0443832957205</v>
+        <v>230.1972790105265</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28112,7 +28112,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>203.0979353664946</v>
+        <v>383.8724281567753</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28120,7 +28120,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>303.787067238843</v>
+        <v>279.7696649102376</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28128,7 +28128,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>240.8931916211573</v>
+        <v>341.454571214476</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28136,7 +28136,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>299.5354553776925</v>
+        <v>250.664140515299</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28144,7 +28144,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>326.3101155438491</v>
+        <v>345.5809149065038</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28152,7 +28152,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>230.0905028796433</v>
+        <v>403.8056707245854</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28160,7 +28160,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>274.19341171047</v>
+        <v>270.7494797518268</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28168,7 +28168,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>283.9192484913505</v>
+        <v>287.5994767334502</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28176,7 +28176,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>326.436286970007</v>
+        <v>371.4715214245549</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28184,7 +28184,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>257.2040330362499</v>
+        <v>205.1254172316388</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28192,7 +28192,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>257.8185643847567</v>
+        <v>239.1752646467944</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28200,7 +28200,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>303.6507389301058</v>
+        <v>347.4125516349729</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28208,7 +28208,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>278.0619066735539</v>
+        <v>360.6542143267001</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28216,7 +28216,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>277.2031398388161</v>
+        <v>220.7295153604202</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28224,7 +28224,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>251.8096818119884</v>
+        <v>275.4480342765375</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28232,7 +28232,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>298.5829567708304</v>
+        <v>352.6235845472622</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28240,7 +28240,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>284.4758064065947</v>
+        <v>251.6536508868603</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28248,7 +28248,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>303.404414077381</v>
+        <v>310.5215488179071</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28256,7 +28256,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>359.397074769318</v>
+        <v>276.5321831076101</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28264,7 +28264,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>232.2198109810081</v>
+        <v>329.3059337310053</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28272,7 +28272,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>252.2046642283767</v>
+        <v>237.4069411279939</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28280,7 +28280,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>356.6862441389499</v>
+        <v>264.016229805638</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28288,7 +28288,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>349.5936966531711</v>
+        <v>234.6837238799651</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28296,7 +28296,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>299.3263751088929</v>
+        <v>286.1549379161386</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28304,7 +28304,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>282.4811299857447</v>
+        <v>234.3176989002541</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28312,7 +28312,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>261.5060206057006</v>
+        <v>264.6120994306074</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28320,7 +28320,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>322.9317073479095</v>
+        <v>304.2309226971788</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28328,7 +28328,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>349.7605935279632</v>
+        <v>335.5734330419123</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28336,7 +28336,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>275.3592226622472</v>
+        <v>287.7602940498066</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28344,7 +28344,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>371.8867236001901</v>
+        <v>259.9189988391736</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28352,7 +28352,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>241.8972778787058</v>
+        <v>266.9070898263221</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28360,7 +28360,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>305.8482319009972</v>
+        <v>238.8193763355795</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28368,7 +28368,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>264.5927117684619</v>
+        <v>359.2226973395406</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28376,7 +28376,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>272.7779105385901</v>
+        <v>275.3898408314517</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28384,7 +28384,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>236.9122840394506</v>
+        <v>379.8782361682962</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28392,7 +28392,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>286.6126895086864</v>
+        <v>249.3151019308793</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28400,7 +28400,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>331.6897920254192</v>
+        <v>326.1630963908754</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28408,7 +28408,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>255.0567681799991</v>
+        <v>248.0453093875297</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28416,7 +28416,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>301.6394034112947</v>
+        <v>275.9929559097121</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28424,7 +28424,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>295.7651166084203</v>
+        <v>271.6934883330022</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28432,7 +28432,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>274.0967096063191</v>
+        <v>277.191430912385</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28440,7 +28440,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>312.7792567590419</v>
+        <v>321.6610016575298</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28448,7 +28448,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>206.8763999898128</v>
+        <v>339.8177065906899</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28456,7 +28456,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>295.3009215501941</v>
+        <v>255.6900452473594</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28464,7 +28464,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>376.0847507277234</v>
+        <v>272.8612854359797</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28472,7 +28472,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>282.6287460546441</v>
+        <v>265.5473272752644</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28480,7 +28480,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>294.3495005885655</v>
+        <v>270.0233769765584</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28488,7 +28488,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>245.5798173787605</v>
+        <v>262.1134964551379</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28496,7 +28496,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>295.8331179677867</v>
+        <v>234.9606583782355</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28504,7 +28504,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>288.0622313758404</v>
+        <v>317.6827661265274</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28512,7 +28512,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>321.9931604249282</v>
+        <v>301.3015698729457</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28520,7 +28520,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>261.8012167989124</v>
+        <v>367.4848636657895</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28528,7 +28528,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>248.2859001430707</v>
+        <v>261.2975803601313</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28536,7 +28536,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>353.623878512226</v>
+        <v>240.2143453992587</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28544,7 +28544,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>254.0560646396266</v>
+        <v>258.8985232269727</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28552,7 +28552,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>224.6208041090461</v>
+        <v>286.1302354620995</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28560,7 +28560,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>327.1277868086665</v>
+        <v>260.7953543186667</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28568,7 +28568,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>301.4826085730055</v>
+        <v>232.4486876544259</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28576,7 +28576,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>262.366968968947</v>
+        <v>335.4870506465099</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28584,7 +28584,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>312.9352507935315</v>
+        <v>367.6543248586894</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28592,7 +28592,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>244.1398050955021</v>
+        <v>358.4095200659809</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28600,7 +28600,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>241.69783399887</v>
+        <v>348.4326029884669</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28608,7 +28608,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>285.3438886299089</v>
+        <v>343.843080040186</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28616,7 +28616,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>291.4648768904357</v>
+        <v>359.709958731313</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28624,7 +28624,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>328.4287028807342</v>
+        <v>298.5983953454297</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28632,7 +28632,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>297.0594325841898</v>
+        <v>257.1618904368652</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28640,7 +28640,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>242.8766972407778</v>
+        <v>328.8465165696478</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28648,7 +28648,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>305.8978885373009</v>
+        <v>368.2035702764289</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28656,7 +28656,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>243.2212076830719</v>
+        <v>349.5710541583828</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28664,7 +28664,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>371.3987625119746</v>
+        <v>254.2006036299056</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28672,7 +28672,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>330.8842738881681</v>
+        <v>306.2540194046883</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28680,7 +28680,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>272.5815625294067</v>
+        <v>233.3286878999907</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28688,7 +28688,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>233.7314526895462</v>
+        <v>367.3379124461646</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28696,7 +28696,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>243.7514853045148</v>
+        <v>321.0123324538179</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28704,7 +28704,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>361.8000585553361</v>
+        <v>228.2919560266143</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28712,7 +28712,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>334.1254345531219</v>
+        <v>372.7336723987485</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28720,7 +28720,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>281.3636703573702</v>
+        <v>271.8883430922694</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28728,7 +28728,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>333.6054722558707</v>
+        <v>247.174780344986</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28736,7 +28736,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>240.6931138211274</v>
+        <v>230.9176995549092</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28744,7 +28744,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>324.8796015762049</v>
+        <v>354.1408956214543</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28752,7 +28752,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>260.9508352015407</v>
+        <v>357.596332672702</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28760,7 +28760,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>218.4396601808151</v>
+        <v>328.7749179612318</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28768,7 +28768,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>363.2914730056452</v>
+        <v>209.7242098728202</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28776,7 +28776,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>270.8921832348345</v>
+        <v>330.8398303636789</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28784,7 +28784,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>200.907840435476</v>
+        <v>370.7663623759579</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28792,7 +28792,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>346.49882473681</v>
+        <v>263.5066643030722</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28800,7 +28800,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>303.4753139290896</v>
+        <v>239.85851482312</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28808,7 +28808,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>225.5560932641633</v>
+        <v>341.7669872399122</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28816,7 +28816,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>321.190450352393</v>
+        <v>236.7905436335725</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28824,7 +28824,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>248.1310245502783</v>
+        <v>197.2339949783268</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28832,7 +28832,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>250.79946983206</v>
+        <v>229.087031853849</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28840,7 +28840,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>322.4699493694043</v>
+        <v>319.7916249185841</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28848,7 +28848,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>390.8215047354009</v>
+        <v>382.1252674413647</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28856,7 +28856,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>296.8248983176943</v>
+        <v>258.4141382743517</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28864,7 +28864,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>327.2479867884147</v>
+        <v>257.6845958222116</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28872,7 +28872,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>360.1904184291441</v>
+        <v>296.3129192648288</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28880,7 +28880,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>353.9557697031615</v>
+        <v>257.6914186398469</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28888,7 +28888,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>293.3210291188215</v>
+        <v>378.8968865117477</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28896,7 +28896,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>242.3311288757113</v>
+        <v>350.5247042671723</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28904,7 +28904,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>374.030495431175</v>
+        <v>276.3317402754009</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28912,7 +28912,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>235.8914634488012</v>
+        <v>369.5785436295607</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28920,7 +28920,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>212.3681567211134</v>
+        <v>279.763747745935</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28928,7 +28928,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>345.813938246313</v>
+        <v>288.4686584654683</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28936,7 +28936,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>315.8442983455435</v>
+        <v>374.8164379800259</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28944,7 +28944,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>306.6785259220318</v>
+        <v>344.684701594384</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28952,7 +28952,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>351.8635639764587</v>
+        <v>360.9264234094971</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28960,7 +28960,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>313.0506358251166</v>
+        <v>196.1437810079165</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28968,7 +28968,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>308.0838946066474</v>
+        <v>321.977491786448</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28976,7 +28976,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>213.9555357381888</v>
+        <v>297.6806800477867</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28984,7 +28984,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>367.9177058834176</v>
+        <v>343.2014121215537</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28992,7 +28992,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>190.7499797959838</v>
+        <v>350.3248588229823</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -29000,7 +29000,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>309.013497344546</v>
+        <v>259.3793532047682</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29008,7 +29008,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>216.5425709911475</v>
+        <v>332.2408728006526</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29016,7 +29016,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>278.326610762457</v>
+        <v>316.2460466373448</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29024,7 +29024,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>320.8469361654663</v>
+        <v>204.3795885447443</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29032,7 +29032,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>222.6245723030033</v>
+        <v>298.3030055107573</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29040,7 +29040,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>262.8764974038398</v>
+        <v>323.8303921401738</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29048,7 +29048,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>342.5594400860285</v>
+        <v>327.8753585228607</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29056,7 +29056,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>368.318637231886</v>
+        <v>368.585010728426</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29064,7 +29064,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>366.5773764384776</v>
+        <v>205.7769499193172</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29072,7 +29072,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>371.597166038906</v>
+        <v>211.6016583379745</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29080,7 +29080,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>260.4214427751714</v>
+        <v>336.3356109977529</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29088,7 +29088,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>285.0141983615226</v>
+        <v>325.091957762388</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29096,7 +29096,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>246.1288387420406</v>
+        <v>337.7729208172035</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29104,7 +29104,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>283.7878849166215</v>
+        <v>339.3675527545822</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29112,7 +29112,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>375.6255255197792</v>
+        <v>267.610304737859</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29120,7 +29120,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>276.1642437124013</v>
+        <v>381.7973564151294</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29128,7 +29128,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>282.8472977088392</v>
+        <v>250.4710172770689</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29136,7 +29136,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>243.0979701299677</v>
+        <v>338.3718475348678</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29144,7 +29144,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>381.8988215266947</v>
+        <v>302.6844168418245</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29152,7 +29152,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>232.1671824403948</v>
+        <v>318.5897202960409</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29160,7 +29160,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>226.0586786248606</v>
+        <v>323.9995420815646</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29168,7 +29168,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>342.4499983075712</v>
+        <v>355.567924552815</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29176,7 +29176,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>311.7255756084336</v>
+        <v>262.1116308485712</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29184,7 +29184,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>351.6308214022534</v>
+        <v>327.7728466834138</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29192,7 +29192,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>386.8570361922659</v>
+        <v>242.3449783419944</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29200,7 +29200,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>367.0085000218195</v>
+        <v>332.2094935991406</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29208,7 +29208,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>232.8859506223221</v>
+        <v>389.7399650510181</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29216,7 +29216,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>303.4507261534304</v>
+        <v>305.8588282909082</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29224,7 +29224,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>261.4248295533981</v>
+        <v>320.5854166873312</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29232,7 +29232,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>247.8221144933699</v>
+        <v>352.1757427596234</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29240,7 +29240,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>301.5581271724793</v>
+        <v>263.3519249926034</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29248,7 +29248,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>331.5333178937285</v>
+        <v>369.6566134248251</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29256,7 +29256,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>244.8388275552722</v>
+        <v>360.8844376636879</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29264,7 +29264,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>355.1264650307265</v>
+        <v>335.047694644212</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29272,7 +29272,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>312.3025428943834</v>
+        <v>211.5004000258767</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29280,7 +29280,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>378.4964802290541</v>
+        <v>390.1692040536003</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29288,7 +29288,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>373.7031225412431</v>
+        <v>270.9737040624635</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29296,7 +29296,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>318.9651470683995</v>
+        <v>213.6819993761367</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29304,7 +29304,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>251.9201464607683</v>
+        <v>271.952613564781</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29312,7 +29312,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>209.8481314570226</v>
+        <v>350.3509336256349</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29320,7 +29320,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>229.1921130591504</v>
+        <v>378.4185149943303</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29328,7 +29328,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>218.0657525081121</v>
+        <v>312.3943468990917</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29336,7 +29336,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>236.9253253062972</v>
+        <v>318.1586906215225</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29344,7 +29344,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>349.6979511189624</v>
+        <v>355.0840100241123</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29352,7 +29352,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>348.5647110187339</v>
+        <v>308.8906272570423</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29360,7 +29360,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>205.9213522206368</v>
+        <v>304.961852826809</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29368,7 +29368,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>240.9255509840054</v>
+        <v>289.0889541918714</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29376,7 +29376,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>230.0380808845395</v>
+        <v>242.2322590416872</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29384,7 +29384,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>329.0477353249888</v>
+        <v>256.92977852101</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29392,7 +29392,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>364.0943358600176</v>
+        <v>354.1520787522158</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29400,7 +29400,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>295.2018963904231</v>
+        <v>266.8037404649026</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29408,7 +29408,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>361.5382588896478</v>
+        <v>370.4109784080721</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29416,7 +29416,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>281.3809676727898</v>
+        <v>300.9537209727379</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29424,7 +29424,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>352.0911931492709</v>
+        <v>268.6282589534102</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29432,7 +29432,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>284.7649057079319</v>
+        <v>323.0821784625954</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29440,7 +29440,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>318.7448465314801</v>
+        <v>336.0012279834995</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29448,7 +29448,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>334.4902678931782</v>
+        <v>205.3344785573688</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29456,7 +29456,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>375.5584872263734</v>
+        <v>364.9916643284585</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29464,7 +29464,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>323.8544456325775</v>
+        <v>265.9134465430084</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29472,7 +29472,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>274.1860717419839</v>
+        <v>357.3543127495867</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29480,7 +29480,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>367.5652332889601</v>
+        <v>298.7216739229472</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29488,7 +29488,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>349.4917391323876</v>
+        <v>340.1633037210871</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29496,7 +29496,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>270.7873914641064</v>
+        <v>258.1997954831625</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29504,7 +29504,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>343.1887139672634</v>
+        <v>222.2735055115379</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29512,7 +29512,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>360.0872958615538</v>
+        <v>308.3677076016245</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29520,7 +29520,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>275.4462066542139</v>
+        <v>313.5458896569019</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29528,7 +29528,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>401.3557760037386</v>
+        <v>278.531530075843</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29536,7 +29536,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>267.1779519997829</v>
+        <v>252.7301230037734</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29544,7 +29544,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>197.4094476672684</v>
+        <v>277.4756168874126</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29552,7 +29552,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>348.715638010856</v>
+        <v>225.8100764581079</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29560,7 +29560,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>229.0258130134523</v>
+        <v>363.6631182286185</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29568,7 +29568,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>365.5773568149522</v>
+        <v>362.6926533914515</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29576,7 +29576,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>246.4975569816498</v>
+        <v>307.724388117314</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29584,7 +29584,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>253.809803501873</v>
+        <v>224.6242610060546</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29592,7 +29592,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>349.3585253696469</v>
+        <v>353.8063967004326</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29600,7 +29600,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>317.7611106077931</v>
+        <v>265.65666302149</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29608,7 +29608,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>324.82987228933</v>
+        <v>270.3250920274709</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29616,7 +29616,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>286.7506231010414</v>
+        <v>268.9602472356538</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29624,7 +29624,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>320.0862090307772</v>
+        <v>320.6114272657099</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29632,7 +29632,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>233.7893198956048</v>
+        <v>348.2985730040264</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29640,7 +29640,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>265.4555613351731</v>
+        <v>308.3216684487306</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29648,7 +29648,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>225.7580284374675</v>
+        <v>358.6760081468673</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29656,7 +29656,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>254.5250993311033</v>
+        <v>282.2041127314803</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29664,7 +29664,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>353.6642197937006</v>
+        <v>302.5216021664813</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29672,7 +29672,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>316.6863646282537</v>
+        <v>333.1974368613858</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29680,7 +29680,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>242.9933150874812</v>
+        <v>290.4223138344788</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29688,7 +29688,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>377.6747989272406</v>
+        <v>360.7925972889988</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29696,7 +29696,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>377.7944977096123</v>
+        <v>246.2252001845956</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29704,7 +29704,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>339.3177925003037</v>
+        <v>295.2459211317675</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29712,7 +29712,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>394.3452469411617</v>
+        <v>222.7109206408953</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29720,7 +29720,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>279.3459482136249</v>
+        <v>287.3626302991535</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29728,7 +29728,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>236.7701824581405</v>
+        <v>268.6266516747702</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29736,7 +29736,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>285.3039759791885</v>
+        <v>223.5532006635869</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29744,7 +29744,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>205.2213156786798</v>
+        <v>267.132154515812</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29752,7 +29752,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>387.4466522536104</v>
+        <v>215.7799422250284</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29760,7 +29760,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>377.7533990972279</v>
+        <v>275.6041976308353</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29768,7 +29768,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>229.1130998857135</v>
+        <v>389.4643518844826</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29776,7 +29776,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>369.3796585833593</v>
+        <v>379.5574961016101</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29784,7 +29784,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>244.6984043406012</v>
+        <v>321.2086717474514</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29792,7 +29792,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>229.9284592243214</v>
+        <v>240.8350206931606</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29800,7 +29800,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>299.223872737998</v>
+        <v>283.1536206032849</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29808,7 +29808,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>323.2794510999705</v>
+        <v>258.9237197272149</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29816,7 +29816,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>346.1629732818862</v>
+        <v>358.4472861689186</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29824,7 +29824,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>287.3708202707742</v>
+        <v>243.4478856853113</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29832,7 +29832,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>219.4507977816943</v>
+        <v>214.2431823603134</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29840,7 +29840,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>344.4618815006555</v>
+        <v>227.4111325766208</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29848,7 +29848,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>243.9324166517717</v>
+        <v>286.3390324193064</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29856,7 +29856,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>227.2298194051164</v>
+        <v>352.6597776048037</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29864,7 +29864,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>247.2250538061912</v>
+        <v>335.3395406134672</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29872,7 +29872,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>207.9239724923228</v>
+        <v>287.352562306557</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29880,7 +29880,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>255.5105424918718</v>
+        <v>373.5453734600883</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29888,7 +29888,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>274.7196063654237</v>
+        <v>319.0382018193033</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29896,7 +29896,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>343.6188596761602</v>
+        <v>308.3788317947331</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29904,7 +29904,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>273.8167676813559</v>
+        <v>289.0460096928655</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29912,7 +29912,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>278.0410977168326</v>
+        <v>266.0786132939705</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29920,7 +29920,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>303.8993713497562</v>
+        <v>341.4434302959292</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29928,7 +29928,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>258.1739009457468</v>
+        <v>287.1607553204177</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29936,7 +29936,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>342.1268913223809</v>
+        <v>318.8676597253499</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29944,7 +29944,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>201.0428941046122</v>
+        <v>311.2276591272628</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29952,7 +29952,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>246.1989205069696</v>
+        <v>371.8953873422788</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29960,7 +29960,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>264.8462197277852</v>
+        <v>245.513938364664</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29968,7 +29968,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>262.2811606949724</v>
+        <v>275.9061917295178</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29976,7 +29976,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>233.0931359919422</v>
+        <v>217.9552412073124</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29984,7 +29984,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>246.7089730132492</v>
+        <v>377.8799897191357</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29992,7 +29992,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>225.7084878791914</v>
+        <v>262.3493750824277</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -30000,7 +30000,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>267.4928032073785</v>
+        <v>236.8368627587471</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30008,7 +30008,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>215.2046411640257</v>
+        <v>208.4952078529274</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30016,7 +30016,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>258.9109885748888</v>
+        <v>234.4632018122548</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30024,7 +30024,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>307.8650573459418</v>
+        <v>225.6026661954006</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30032,7 +30032,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>252.3069657320703</v>
+        <v>307.378990286576</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30040,7 +30040,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>297.9455766028302</v>
+        <v>308.0503258781825</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30048,7 +30048,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>285.4470694913578</v>
+        <v>346.4017383684203</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30056,7 +30056,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>290.7652880755004</v>
+        <v>353.2403429856341</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30064,7 +30064,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>346.01999414388</v>
+        <v>382.0076492938031</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30072,7 +30072,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>278.3144376126896</v>
+        <v>268.3599003372696</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30080,7 +30080,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>267.9959513342901</v>
+        <v>313.3134231549381</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30088,7 +30088,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>269.2158742422392</v>
+        <v>358.4824160880311</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30096,7 +30096,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>217.477199524821</v>
+        <v>326.3485872440099</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30104,7 +30104,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>295.4082433043927</v>
+        <v>322.4868276683216</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30112,7 +30112,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>255.6653103144185</v>
+        <v>276.5751495928599</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30120,7 +30120,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>399.4957585826936</v>
+        <v>336.1531773282657</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30128,7 +30128,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>312.1100401469875</v>
+        <v>276.7187871831641</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30136,7 +30136,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>282.3939612473342</v>
+        <v>278.1945599644715</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30144,7 +30144,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>348.7830624495072</v>
+        <v>352.5401206735948</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30152,7 +30152,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>227.1088046975048</v>
+        <v>258.6344526001596</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30160,7 +30160,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>336.6438421360381</v>
+        <v>270.9720893946861</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30168,7 +30168,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>343.4077260852488</v>
+        <v>203.1296731128102</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30176,7 +30176,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>369.8722898258456</v>
+        <v>226.1872130652365</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30184,7 +30184,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>318.9296646841121</v>
+        <v>312.3725765115739</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30192,7 +30192,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>233.388585837997</v>
+        <v>332.1420865319434</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30200,7 +30200,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>231.6839549339987</v>
+        <v>279.3117119451346</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30208,7 +30208,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>341.5825439716381</v>
+        <v>274.2433503849386</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30216,7 +30216,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>379.2300819731418</v>
+        <v>223.0650841548505</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30224,7 +30224,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>295.3890162230846</v>
+        <v>284.475761560926</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30232,7 +30232,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>266.8948526785017</v>
+        <v>289.2628766958896</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30240,7 +30240,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>205.5409069388432</v>
+        <v>384.916781364694</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30248,7 +30248,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>316.9994306574924</v>
+        <v>402.2721668942514</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30256,7 +30256,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>311.083101846969</v>
+        <v>225.806205423905</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30264,7 +30264,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>315.7433026389863</v>
+        <v>333.6592136679468</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30272,7 +30272,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>293.2419117674435</v>
+        <v>371.8723872379493</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30280,7 +30280,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>378.2036349934343</v>
+        <v>257.7371707987302</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30288,7 +30288,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>371.0092626707404</v>
+        <v>321.7281322322709</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30296,7 +30296,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>335.8519882370109</v>
+        <v>258.6654417132505</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30304,7 +30304,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>292.0262098122166</v>
+        <v>247.5338644317216</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30312,7 +30312,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>356.6194126116272</v>
+        <v>360.5017604849953</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30320,7 +30320,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>228.2573291988399</v>
+        <v>285.3185968607436</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30328,7 +30328,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>324.3524237994859</v>
+        <v>263.8931296802729</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30336,7 +30336,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>246.7742971631083</v>
+        <v>308.1743482851464</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30344,7 +30344,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>257.6145245831999</v>
+        <v>271.127637282105</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30352,7 +30352,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>388.0395555885295</v>
+        <v>407.6737869978546</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30360,7 +30360,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>229.5620979499647</v>
+        <v>325.1129791712042</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30368,7 +30368,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>284.5149309292014</v>
+        <v>238.7455121358043</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30376,7 +30376,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>304.6501725535085</v>
+        <v>347.2291277878713</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30384,7 +30384,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>294.9538929565738</v>
+        <v>323.3092549488996</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30392,7 +30392,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>348.8895170153936</v>
+        <v>342.2151772404004</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30400,7 +30400,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>218.7900991204077</v>
+        <v>240.7140995562717</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30408,7 +30408,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>219.8478971556372</v>
+        <v>229.654913581649</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30416,7 +30416,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>267.6099589533314</v>
+        <v>269.2065060446467</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30424,7 +30424,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>343.1786104147008</v>
+        <v>368.097588934423</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30432,7 +30432,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>341.7181487235288</v>
+        <v>264.4791339901088</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30440,7 +30440,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>333.5104546992721</v>
+        <v>369.750767760299</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30448,7 +30448,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>286.3329818948606</v>
+        <v>374.1520884383516</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30456,7 +30456,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>297.3646539472547</v>
+        <v>346.5177594928713</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30464,7 +30464,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>356.7186070132895</v>
+        <v>242.9441950266085</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30472,7 +30472,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>258.5297086682581</v>
+        <v>260.9593777969758</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30480,7 +30480,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>276.0614802727949</v>
+        <v>263.860440345822</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30488,7 +30488,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>223.3899494884799</v>
+        <v>301.1823113080296</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30496,7 +30496,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>212.9685582180286</v>
+        <v>361.2925026292738</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30504,7 +30504,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>369.9266133220318</v>
+        <v>291.9204159007429</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30512,7 +30512,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>225.3936798136762</v>
+        <v>371.0366424249838</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30520,7 +30520,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>236.1157165553672</v>
+        <v>333.688706037381</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30528,7 +30528,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>349.8267422160142</v>
+        <v>269.5522629001975</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30536,7 +30536,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>308.5902210905671</v>
+        <v>395.9619418130173</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30544,7 +30544,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>324.4799825553594</v>
+        <v>300.2869196091053</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30552,7 +30552,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>311.7798094721538</v>
+        <v>305.5480573566114</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30560,7 +30560,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>386.527888451243</v>
+        <v>284.2339405482868</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30568,7 +30568,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>353.5607328722411</v>
+        <v>322.9885727848471</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30576,7 +30576,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>336.5910955278508</v>
+        <v>336.8349904714014</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30584,7 +30584,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>278.5579170560263</v>
+        <v>237.9965534304587</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30592,7 +30592,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>360.3870139539943</v>
+        <v>270.4229942150855</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30600,7 +30600,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>264.1934968995413</v>
+        <v>325.9069004217501</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30608,7 +30608,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>280.4810172014355</v>
+        <v>300.5437116362693</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30616,7 +30616,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>264.5658947871964</v>
+        <v>254.7517992234434</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30624,7 +30624,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>365.8609050672272</v>
+        <v>348.5459583954628</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30632,7 +30632,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>361.1990874715587</v>
+        <v>339.4155630521307</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30640,7 +30640,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>235.4272857558924</v>
+        <v>313.9288061901805</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30648,7 +30648,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>200.928418632389</v>
+        <v>250.5814877939779</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30656,7 +30656,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>348.7346800084142</v>
+        <v>218.9760988066695</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30664,7 +30664,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>368.5939425464453</v>
+        <v>276.5028688481808</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30672,7 +30672,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>270.7614041801692</v>
+        <v>319.0202613087821</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30680,7 +30680,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>255.9479543437787</v>
+        <v>299.2966308808532</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30688,7 +30688,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>264.3374520708379</v>
+        <v>324.4734015821923</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30696,7 +30696,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>325.901233469911</v>
+        <v>317.2894980235488</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30704,7 +30704,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>363.058904123353</v>
+        <v>266.4658170737723</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30712,7 +30712,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>320.202040929933</v>
+        <v>237.0431463066444</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30720,7 +30720,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>239.3073667319236</v>
+        <v>341.5763594418638</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30728,7 +30728,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>382.7611180953827</v>
+        <v>289.2882592880977</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30736,7 +30736,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>281.5399832261204</v>
+        <v>311.5827926625395</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30744,7 +30744,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>304.1961923406485</v>
+        <v>246.2028709279604</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30752,7 +30752,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>383.3513930172006</v>
+        <v>254.189674264334</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30760,7 +30760,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>355.8363729304159</v>
+        <v>269.5733192018862</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30768,7 +30768,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>286.5087106057595</v>
+        <v>319.6680842503882</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30776,7 +30776,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>314.0391176801528</v>
+        <v>338.4318280929708</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30784,7 +30784,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>212.1129756393827</v>
+        <v>279.1886483997317</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30792,7 +30792,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>295.4113931423857</v>
+        <v>287.2455523008924</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30800,7 +30800,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>303.3643968579546</v>
+        <v>346.2939854554716</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30808,7 +30808,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>347.4776944393266</v>
+        <v>307.1524606194215</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30816,7 +30816,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>258.1028038796926</v>
+        <v>229.3552759301878</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30824,7 +30824,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>271.1606542920649</v>
+        <v>369.7753160762873</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30832,7 +30832,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>256.9158065273626</v>
+        <v>314.6616958485134</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30840,7 +30840,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>309.8401320816114</v>
+        <v>268.0739070289497</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30848,7 +30848,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>216.9902389029615</v>
+        <v>296.5861191759761</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30856,7 +30856,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>271.4362007625901</v>
+        <v>239.1540883273484</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30864,7 +30864,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>218.3267913520355</v>
+        <v>243.3471760380926</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30872,7 +30872,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>308.1657434741308</v>
+        <v>325.0947409397782</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30880,7 +30880,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>323.9016750688228</v>
+        <v>343.1117215581511</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30888,7 +30888,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>336.3993556811876</v>
+        <v>263.7925359366504</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30896,7 +30896,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>281.5661067804739</v>
+        <v>300.2584788802538</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30904,7 +30904,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>195.3725792264597</v>
+        <v>347.5508112272685</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30912,7 +30912,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>325.2195746090719</v>
+        <v>328.8062144004857</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30920,7 +30920,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>245.8402844752476</v>
+        <v>278.7551045518174</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30928,7 +30928,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>382.3232403099373</v>
+        <v>263.6854098884008</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30936,7 +30936,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>281.8905119610046</v>
+        <v>249.3095506044525</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30944,7 +30944,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>224.2515754634166</v>
+        <v>294.8571795936217</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30952,7 +30952,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>353.5129516431098</v>
+        <v>263.2638806247963</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30960,7 +30960,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>329.1393122407329</v>
+        <v>380.9585653310962</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30968,7 +30968,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>380.8288800750919</v>
+        <v>349.9764105180518</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30976,7 +30976,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>216.5822523715023</v>
+        <v>217.9538740727766</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30984,7 +30984,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>233.7230632144046</v>
+        <v>361.0019936775929</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30992,7 +30992,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>284.2776797583583</v>
+        <v>254.3806484291045</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -31000,7 +31000,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>309.1465876695978</v>
+        <v>296.1004273740726</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31008,7 +31008,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>240.5239509519878</v>
+        <v>356.3916419386677</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31016,7 +31016,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>330.7987024161805</v>
+        <v>291.8379386090427</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31024,7 +31024,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>244.6650677635608</v>
+        <v>360.5258340867021</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31032,7 +31032,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>231.4881040656913</v>
+        <v>272.004792089016</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31040,7 +31040,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>252.7193031514771</v>
+        <v>225.8737359783143</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31048,7 +31048,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>312.4192132136123</v>
+        <v>316.2029866174771</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31056,7 +31056,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>393.0317271988594</v>
+        <v>275.7020576835322</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31064,7 +31064,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>315.9579318968402</v>
+        <v>326.9725480116718</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31072,7 +31072,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>318.8605780366129</v>
+        <v>309.6906098393482</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31080,7 +31080,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>234.641226701829</v>
+        <v>386.986202206555</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31088,7 +31088,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>208.7567177702936</v>
+        <v>388.5418106192458</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31096,7 +31096,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>206.5812680541492</v>
+        <v>228.0433917640347</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31104,7 +31104,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>312.6391681406858</v>
+        <v>324.2524119489091</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31112,7 +31112,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>383.1399812190213</v>
+        <v>320.6323971599949</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31120,7 +31120,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>306.0143246660557</v>
+        <v>282.5038072847599</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31128,7 +31128,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>318.2102822610062</v>
+        <v>372.4619461681749</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31136,7 +31136,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>303.6220486835345</v>
+        <v>266.6285756895933</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31144,7 +31144,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>352.7250694347642</v>
+        <v>272.450452453784</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31152,7 +31152,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>229.2935264354056</v>
+        <v>307.6542391865093</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31160,7 +31160,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>335.088046237518</v>
+        <v>259.9630764710957</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31168,7 +31168,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>280.8873907224785</v>
+        <v>273.0601922809082</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31176,7 +31176,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>339.8424315939732</v>
+        <v>263.5919117275995</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31184,7 +31184,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>239.4837917977192</v>
+        <v>392.7428495827279</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31192,7 +31192,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>212.3364838899938</v>
+        <v>378.762441552067</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31200,7 +31200,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>206.5865720873128</v>
+        <v>257.3922162060137</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31208,7 +31208,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>257.3422657834989</v>
+        <v>316.9227497513098</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31216,7 +31216,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>355.0602946957753</v>
+        <v>337.0898450140318</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31224,7 +31224,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>306.5090702829431</v>
+        <v>340.6869474443699</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31232,7 +31232,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>354.3086272620847</v>
+        <v>220.1406498443482</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31240,7 +31240,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>359.2401453751937</v>
+        <v>301.6199661533892</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31248,7 +31248,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>348.2585799295534</v>
+        <v>358.2914132615055</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31256,7 +31256,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>302.6760172944874</v>
+        <v>262.080936421961</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31264,7 +31264,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>301.5035448830093</v>
+        <v>257.6470001871923</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31272,7 +31272,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>250.4945526512975</v>
+        <v>300.2320467985364</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31280,7 +31280,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>291.954590925469</v>
+        <v>357.0673137202577</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31288,7 +31288,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>340.6544731660816</v>
+        <v>274.2298456873334</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31296,7 +31296,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>272.5079172809566</v>
+        <v>187.3739710217987</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31304,7 +31304,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>243.0785057271441</v>
+        <v>288.7098624934624</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31312,7 +31312,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>313.6629682133562</v>
+        <v>280.694869972754</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31320,7 +31320,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>231.8036033127303</v>
+        <v>271.4917802697396</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31328,7 +31328,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>288.942335018758</v>
+        <v>299.143699750323</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31336,7 +31336,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>280.6159330167648</v>
+        <v>277.3960317853683</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31344,7 +31344,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>228.0730404713393</v>
+        <v>282.8421755865683</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31352,7 +31352,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>321.0473491923431</v>
+        <v>249.108380224501</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31360,7 +31360,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>317.4855181319759</v>
+        <v>250.0527310030253</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31368,7 +31368,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>372.6447741962235</v>
+        <v>338.2237656250273</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31376,7 +31376,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>276.2682217951228</v>
+        <v>302.7405309981266</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31384,7 +31384,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>305.3530220712639</v>
+        <v>315.8627958204619</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31392,7 +31392,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>231.9123789777152</v>
+        <v>389.6471199403931</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31400,7 +31400,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>262.5238591261016</v>
+        <v>257.2280605711977</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31408,7 +31408,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>356.9548179411526</v>
+        <v>302.3652149229052</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31416,7 +31416,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>246.8591324494945</v>
+        <v>279.4570576514712</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31424,7 +31424,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>281.1882514676719</v>
+        <v>262.480616410653</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31432,7 +31432,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>235.9909804498394</v>
+        <v>355.4371004154277</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31440,7 +31440,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>370.4458858334202</v>
+        <v>256.1500210785271</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31448,7 +31448,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>382.1459290602058</v>
+        <v>293.0327231241839</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31456,7 +31456,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>254.4783874263722</v>
+        <v>208.1397200353115</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31464,7 +31464,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>324.5056330941383</v>
+        <v>255.7639947564761</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31472,7 +31472,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>304.4061614697832</v>
+        <v>240.41264583966</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31480,7 +31480,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>371.9960206806937</v>
+        <v>350.6977102608518</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31488,7 +31488,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>369.4658906719446</v>
+        <v>350.9375258875506</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31496,7 +31496,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>320.0282419866227</v>
+        <v>251.0172134483347</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31504,7 +31504,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>268.2045898180566</v>
+        <v>301.2454552734904</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31512,7 +31512,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>247.6340631451949</v>
+        <v>378.2355623754655</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31520,7 +31520,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>317.8562743154567</v>
+        <v>275.7213172985446</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31528,7 +31528,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>228.7705338749383</v>
+        <v>224.9957950452405</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31536,7 +31536,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>225.7467981056596</v>
+        <v>318.844829560233</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31544,7 +31544,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>248.5369750629705</v>
+        <v>247.5221001376034</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31552,7 +31552,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>290.1425901003483</v>
+        <v>318.1486348067309</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31560,7 +31560,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>288.2228396141969</v>
+        <v>328.6474500508232</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31568,7 +31568,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>368.181566244037</v>
+        <v>386.567262852294</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31576,7 +31576,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>388.8849144516176</v>
+        <v>368.5090518212757</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31584,7 +31584,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>278.910974784502</v>
+        <v>366.9996439180339</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31592,7 +31592,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>257.5075518055016</v>
+        <v>350.4711073575827</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31600,7 +31600,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>321.9877518697483</v>
+        <v>410.913762955608</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31608,7 +31608,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>381.0494871031783</v>
+        <v>244.3064029719413</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31616,7 +31616,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>379.2808905189288</v>
+        <v>230.9502889095832</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31624,7 +31624,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>354.7601972529329</v>
+        <v>278.3447900884947</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31632,7 +31632,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>230.2945075047467</v>
+        <v>301.9555310019634</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31640,7 +31640,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>275.9858047466035</v>
+        <v>375.3058610725926</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31648,7 +31648,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>346.8241339172623</v>
+        <v>373.4753751041905</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31656,7 +31656,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>205.7789448950444</v>
+        <v>303.8661012678768</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31664,7 +31664,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>301.1302977668114</v>
+        <v>234.8238944088382</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31672,7 +31672,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>324.4977191011745</v>
+        <v>305.9577250645991</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31680,7 +31680,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>259.5497620341773</v>
+        <v>289.4331752904365</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31688,7 +31688,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>301.523897570401</v>
+        <v>281.2067749535464</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31696,7 +31696,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>217.2641636962234</v>
+        <v>246.6652633028679</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31704,7 +31704,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>208.9949941372905</v>
+        <v>320.787758815885</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31712,7 +31712,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>357.2228981866659</v>
+        <v>258.8271173010266</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31720,7 +31720,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>199.3157828414442</v>
+        <v>275.5283595978279</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31728,7 +31728,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>349.1257031090739</v>
+        <v>304.5976423562656</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31736,7 +31736,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>273.2961660443842</v>
+        <v>330.320213844017</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31744,7 +31744,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>303.6538881030088</v>
+        <v>315.7155912101024</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31752,7 +31752,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>272.1840497862133</v>
+        <v>296.7077306905656</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31760,7 +31760,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>321.5247853118878</v>
+        <v>391.3718398924327</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31768,7 +31768,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>230.9335561088158</v>
+        <v>256.0125233714333</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31776,7 +31776,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>346.7144378684433</v>
+        <v>326.6306654465649</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31784,7 +31784,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>307.4910940736723</v>
+        <v>269.4472902023927</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31792,7 +31792,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>233.9101803067776</v>
+        <v>243.923591638081</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31800,7 +31800,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>345.2792689578388</v>
+        <v>240.9344924500409</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31808,7 +31808,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>297.7698743352532</v>
+        <v>262.271679046393</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31816,7 +31816,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>298.273198833753</v>
+        <v>243.1862351836666</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31824,7 +31824,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>375.9629232439552</v>
+        <v>231.9684271598765</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31832,7 +31832,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>273.9986242209924</v>
+        <v>307.9368688873581</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31840,7 +31840,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>340.3551875403568</v>
+        <v>220.6874800376066</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31848,7 +31848,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>286.9947611179267</v>
+        <v>343.3102907282708</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31856,7 +31856,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>338.6479034339982</v>
+        <v>266.6923105671456</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31864,7 +31864,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>299.5850589408617</v>
+        <v>342.9757679235411</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31872,7 +31872,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>262.2082131236161</v>
+        <v>320.2622058697834</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31880,7 +31880,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>354.077762642253</v>
+        <v>296.1199951805361</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31888,7 +31888,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>313.3420590380789</v>
+        <v>376.2244001650805</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31896,7 +31896,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>272.1164976948378</v>
+        <v>272.9913699913356</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31904,7 +31904,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>307.6776872125791</v>
+        <v>277.1742665530881</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31912,7 +31912,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>388.1520883295355</v>
+        <v>273.0723862031839</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31920,7 +31920,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>358.0652105039854</v>
+        <v>213.0067714041593</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31928,7 +31928,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>281.7133115701026</v>
+        <v>319.0426668392255</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31936,7 +31936,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>340.5891697867204</v>
+        <v>221.5506114385372</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31944,7 +31944,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>287.1868416895954</v>
+        <v>291.7541699953203</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31952,7 +31952,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>223.9005459701845</v>
+        <v>285.4303964493625</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31960,7 +31960,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>230.4127255024368</v>
+        <v>336.8730805445843</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31968,7 +31968,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>307.4322001706532</v>
+        <v>337.4418197804917</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31976,7 +31976,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>309.3785906236237</v>
+        <v>379.9906668608677</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31984,7 +31984,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>256.2974484898864</v>
+        <v>332.0005688111945</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31992,7 +31992,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>322.5359625041431</v>
+        <v>319.9691184918092</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -32000,7 +32000,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>245.7156883647501</v>
+        <v>340.9310204327052</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32008,7 +32008,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>282.3299515864254</v>
+        <v>311.7384678524809</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32016,7 +32016,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>285.710823996453</v>
+        <v>336.3225832641327</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32024,7 +32024,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>245.580341113565</v>
+        <v>299.7570636201901</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32032,7 +32032,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>275.8107568020341</v>
+        <v>350.4115389003775</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32040,7 +32040,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>293.0041823124863</v>
+        <v>288.6405961821229</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32048,7 +32048,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>269.1199868002007</v>
+        <v>357.2179457669497</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32056,7 +32056,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>258.1993321558244</v>
+        <v>208.8345488206302</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32064,7 +32064,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>282.7747660176155</v>
+        <v>320.3916182978543</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32072,7 +32072,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>255.6820241732149</v>
+        <v>318.1546689661226</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32080,7 +32080,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>330.4057187119076</v>
+        <v>281.882382824127</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32088,7 +32088,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>371.1342934023812</v>
+        <v>318.2538713730701</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32096,7 +32096,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>276.3982149809921</v>
+        <v>367.6722513620985</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32104,7 +32104,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>271.0645081067259</v>
+        <v>361.8600361310893</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32112,7 +32112,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>306.5607048879197</v>
+        <v>386.6231383329424</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32120,7 +32120,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>309.5198292697145</v>
+        <v>268.4400421282936</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32128,7 +32128,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>220.3870066533085</v>
+        <v>321.6533454327072</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32136,7 +32136,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>248.9539472671457</v>
+        <v>276.6235459119241</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32144,7 +32144,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>224.5465988407989</v>
+        <v>234.1833789287727</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32152,7 +32152,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>358.0037295848259</v>
+        <v>350.5504512147739</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32160,7 +32160,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>373.9506595816139</v>
+        <v>303.3290602675926</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32168,7 +32168,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>371.7240319871287</v>
+        <v>332.4157561598346</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32176,7 +32176,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>229.3667306865129</v>
+        <v>228.1969283233609</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32184,7 +32184,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>290.5710695186302</v>
+        <v>232.202968205135</v>
       </c>
     </row>
   </sheetData>
